--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -72,13 +72,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>安装步骤：</t>
     </r>
     <r>
@@ -94,7 +87,7 @@
     </r>
   </si>
   <si>
-    <t>系统变量Path       D:\mysql-5.7.19-winx64\bin</t>
+    <t>系统变量Path  》编辑 》新建      D:\mysql-5.7.19-winx64\bin</t>
   </si>
   <si>
     <t>D:\mysql-5.7.35-winx64目录下，新建文件my.ini,加内容要改安装路径</t>
@@ -103,7 +96,7 @@
     <t>管理员身份打开cmd        开始--windows系统--命令提示符--右击</t>
   </si>
   <si>
-    <t>切换bin目录下   cd /D D:\mysql-5.7.19-winx64\bin      是D盘就 cd D:\mysql-5.7.19-winx64\bin</t>
+    <t>切换bin目录下：cd /D D:\mysql-5.7.19-winx64\bin  或  1.切换D盘：d:  2.切换路径：cd D:\mysql-5.7.19-winx64\bin</t>
   </si>
   <si>
     <t>mysqld -install    注册服务:任务管理器-服务    安装mysql时出现应用程序无法正常启动（0xc000007b）</t>
@@ -115,7 +108,7 @@
     <t>mysqld --initialize-insecure --user=mysql    初始化      看见数据data文件</t>
   </si>
   <si>
-    <t>win + r      services.msc    服务管理器</t>
+    <t>打开服务管理器：win + r   》   输入services.msc</t>
   </si>
   <si>
     <t>net start mysql    启动mysql服务</t>
@@ -1439,10 +1432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1513,6 +1506,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1521,29 +1537,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,8 +1566,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,23 +1596,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1597,30 +1606,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1636,6 +1622,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1656,37 +1649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,7 +1673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,13 +1697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,31 +1709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,25 +1739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,7 +1757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,13 +1775,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,6 +1834,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1863,7 +1889,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1879,39 +1905,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1949,10 +1942,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1961,16 +1954,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1982,112 +1975,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2490,8 +2483,8 @@
   <sheetPr/>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2793,8 +2786,8 @@
   <sheetPr/>
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -4339,7 +4332,7 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -17,128 +17,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="409">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">下载地址: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="435">
   <si>
     <t>Mysql5.7下载与安装</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下载：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://dev.mysql.com/downloads/mysql/5.7.html</t>
-    </r>
-  </si>
-  <si>
-    <t>Oracle账号   2693281934@qq.com/@Aa123456</t>
-  </si>
-  <si>
-    <r>
-      <t>安装步骤：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://blog.csdn.net/weixin_43395911/article/details/99702121</t>
-    </r>
-  </si>
-  <si>
-    <t>系统变量Path  》编辑 》新建      D:\mysql-5.7.19-winx64\bin</t>
+    <t>下载地址</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip</t>
+  </si>
+  <si>
+    <t>下载：</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/mysql/5.7.html</t>
+  </si>
+  <si>
+    <t>Oracle账号</t>
+  </si>
+  <si>
+    <t>2693281934@qq.com/@Aa123456</t>
+  </si>
+  <si>
+    <t>安装步骤</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43395911/article/details/99702121</t>
+  </si>
+  <si>
+    <t>系统变量</t>
+  </si>
+  <si>
+    <t>Path  》编辑 》新建      D:\mysql-5.7.19-winx64\bin</t>
+  </si>
+  <si>
+    <t>新建文件my.ini</t>
   </si>
   <si>
     <t>D:\mysql-5.7.35-winx64目录下，新建文件my.ini,加内容要改安装路径</t>
   </si>
   <si>
-    <t>管理员身份打开cmd        开始--windows系统--命令提示符--右击</t>
-  </si>
-  <si>
-    <t>切换bin目录下：cd /D D:\mysql-5.7.19-winx64\bin  或  1.切换D盘：d:  2.切换路径：cd D:\mysql-5.7.19-winx64\bin</t>
-  </si>
-  <si>
-    <t>mysqld -install    注册服务:任务管理器-服务    安装mysql时出现应用程序无法正常启动（0xc000007b）</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/zztingfeng/article/details/80155624</t>
-  </si>
-  <si>
-    <t>mysqld --initialize-insecure --user=mysql    初始化      看见数据data文件</t>
-  </si>
-  <si>
-    <t>打开服务管理器：win + r   》   输入services.msc</t>
-  </si>
-  <si>
-    <t>net start mysql    启动mysql服务</t>
-  </si>
-  <si>
-    <t>mysqld --console    查看启动的报错信息</t>
-  </si>
-  <si>
-    <t>netstat -ano    查看占用端口</t>
-  </si>
-  <si>
-    <t>net stop mysql    停止mysql</t>
-  </si>
-  <si>
-    <t>mysql -u root -p     进入管理终端</t>
+    <t>管理员身份打开cmd</t>
+  </si>
+  <si>
+    <t>开始--windows系统--命令提示符--右击</t>
+  </si>
+  <si>
+    <t>切换bin目录下</t>
+  </si>
+  <si>
+    <t>cd /D D:\mysql-5.7.19-winx64\bin</t>
+  </si>
+  <si>
+    <t>或  1.切换D盘：d:  2.切换路径：cd D:\mysql-5.7.19-winx64\bin</t>
+  </si>
+  <si>
+    <t>注册服务:任务管理器-服务</t>
+  </si>
+  <si>
+    <t>mysqld -install</t>
+  </si>
+  <si>
+    <t>安装mysql时出现应用程序无法正常启动（0xc000007b）--- https://blog.csdn.net/zztingfeng/article/details/80155624</t>
+  </si>
+  <si>
+    <t>初始化</t>
+  </si>
+  <si>
+    <t>mysqld --initialize-insecure --user=mysql          看见数据data文件</t>
+  </si>
+  <si>
+    <t>打开服务管理器</t>
+  </si>
+  <si>
+    <t>win + r   》   输入services.msc</t>
+  </si>
+  <si>
+    <t>启动mysql服务</t>
+  </si>
+  <si>
+    <t>net start mysql</t>
+  </si>
+  <si>
+    <t>查看启动的报错信息</t>
+  </si>
+  <si>
+    <t>mysqld --console</t>
+  </si>
+  <si>
+    <t>查看占用端口</t>
+  </si>
+  <si>
+    <t>netstat -ano</t>
+  </si>
+  <si>
+    <t>停止mysql服务</t>
+  </si>
+  <si>
+    <t>net stop mysql</t>
+  </si>
+  <si>
+    <t>进入管理终端</t>
+  </si>
+  <si>
+    <t>mysql -u root -p</t>
+  </si>
+  <si>
+    <t>使用mysql</t>
   </si>
   <si>
     <t>use mysql;</t>
   </si>
   <si>
+    <t>设置myspl用户名与密码</t>
+  </si>
+  <si>
     <t>update user set authentication_string=password('root123456') where user='root' and Host='localhost';</t>
   </si>
   <si>
-    <t>flush privileges;    刷新权限</t>
-  </si>
-  <si>
-    <t>quit   退出管理终端，mysql还运行</t>
-  </si>
-  <si>
-    <t>sc delete mysql     删除已安装得mysql</t>
+    <t>刷新权限</t>
+  </si>
+  <si>
+    <t>flush privileges;</t>
+  </si>
+  <si>
+    <t>退出管理终端</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>删除已安装得mysql</t>
+  </si>
+  <si>
+    <t>sc delete mysql</t>
+  </si>
+  <si>
+    <t>命令行连接mysql</t>
   </si>
   <si>
     <t>mysql -h 主机名 -P 端口 -u 用户名 -p密码(没空格，密码若不写，下行需要)启动后,连接mysql服务(数据库)指令</t>
@@ -180,7 +196,10 @@
 id：2---name：鹿鹿---address：广东佛山</t>
   </si>
   <si>
-    <t>SQLyog安装</t>
+    <t>SQLyog</t>
+  </si>
+  <si>
+    <t>下载安装</t>
   </si>
   <si>
     <t>https://sqlyog.en.softonic.com/</t>
@@ -245,27 +264,6 @@
     <t>驱动包右键---Add as Library</t>
   </si>
   <si>
-    <t>增删改查</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/weixin_39609071/article/details/110866742</t>
-  </si>
-  <si>
-    <t>安装 Spring 框架库</t>
-  </si>
-  <si>
-    <t>https://spring.io/projects/spring-framework</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/lingyiwin/article/details/92171910</t>
-  </si>
-  <si>
-    <t>例子</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_17768279/article/details/102610136</t>
-  </si>
-  <si>
     <t>SQL语句</t>
   </si>
   <si>
@@ -323,13 +321,16 @@
     <t>存储引擎---engine</t>
   </si>
   <si>
+    <t>db</t>
+  </si>
+  <si>
     <t>InnoDB</t>
   </si>
   <si>
     <t>创建数据库</t>
   </si>
   <si>
-    <t>create database `数据库名`;        加反引号可以规避关键字</t>
+    <t>create database `数据库名`;     加反引号可以规避关键字</t>
   </si>
   <si>
     <t>utf8字符集</t>
@@ -362,31 +363,31 @@
     <t>show create database 数据库名;</t>
   </si>
   <si>
-    <t>备份数据库(注意：在DOS执行,其实是bin目录)</t>
+    <t>备份数据库(在DOS执行：管理员命令提示符 》bin目录)</t>
   </si>
   <si>
     <t>mysqldump -u 用户名 -p -B 数据库1 数据库2 数据库n &gt; d:\\文件名.sql</t>
   </si>
   <si>
-    <t>恢复数据库(注意：进入Mysql命令行再执行，其实是管理终端)</t>
+    <t>恢复数据库(进入Mysql命令行再执行：管理员命令提示符 》bin目录 》管理终端)</t>
   </si>
   <si>
     <t>source d:\\文件名backups.sql;</t>
   </si>
   <si>
-    <t>恢复数据库</t>
-  </si>
-  <si>
-    <t>复制backups.sql到Query查询编辑器中，全选执行查询，root@localhost右键刷新</t>
-  </si>
-  <si>
-    <t>备份数据库的表</t>
+    <t>恢复数据库（在SQLyog执行）</t>
+  </si>
+  <si>
+    <t>打开backups.sql复制到Query查询编辑器中，全选执行查询，root@localhost右键刷新</t>
+  </si>
+  <si>
+    <t>备份数据库的表(在DOS执行：管理员命令提示符 》bin目录)</t>
   </si>
   <si>
     <t>mysqldump -u 用户名 -p 数据库 表1 表2 表n &gt; d:\\文件名.sql</t>
   </si>
   <si>
-    <t>查询（分单表和多表）</t>
+    <t>查询（单表和多表）</t>
   </si>
   <si>
     <t xml:space="preserve">选中数据库,查询select、*所有字段、from从哪个表
@@ -945,7 +946,8 @@
     `name` varchar(255),
     `date` date,
     `math` float not null default 0.0
-    )character set 字符集 collate 排序规则 engine 存储引擎
+    )character set 字符集utf8 collate 排序规则utf8_bin engine 存储引擎InnoDB
+以下一般不需要
     field: 指定列名 datatype: 指定列类型
     character set: 字符集
     collate: 排序规则
@@ -1277,40 +1279,70 @@
     <t>Mysql数据类型（列类型）</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>占用存储空间</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
     <t>数值类型</t>
   </si>
   <si>
-    <t>整形</t>
+    <t>整数类型</t>
   </si>
   <si>
     <t>tinyint</t>
   </si>
   <si>
-    <t>1个字节，范围-128到127</t>
+    <t>1个字节，等2^8</t>
+  </si>
+  <si>
+    <t>是-128到127</t>
   </si>
   <si>
     <t>smallint</t>
   </si>
   <si>
-    <t>2个字节,范围-2^15到2^15 - 1</t>
+    <t>2个字节</t>
+  </si>
+  <si>
+    <t>是-2^15到2^15 - 1</t>
   </si>
   <si>
     <t>mediumint</t>
   </si>
   <si>
-    <t>3个字节,范围-2^23到2^23 - 1</t>
+    <t>3个字节</t>
+  </si>
+  <si>
+    <t>是-2^23到2^23 - 1</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>4个字节,范围-2^31到2^31 - 1</t>
+    <t>4个字节</t>
+  </si>
+  <si>
+    <t>是-2^31到2^31 - 1</t>
   </si>
   <si>
     <t>bigint</t>
   </si>
   <si>
-    <t>5个字节,范围-2^63到2^63 - 1</t>
+    <t>5个字节</t>
+  </si>
+  <si>
+    <t>是-2^63到2^63 - 1</t>
   </si>
   <si>
     <t>小数类型</t>
@@ -1319,13 +1351,16 @@
     <t>float</t>
   </si>
   <si>
-    <t>单精度，4个字节</t>
+    <t>单精度</t>
   </si>
   <si>
     <t>double</t>
   </si>
   <si>
-    <t>双精度，8个字节</t>
+    <t>双精度</t>
+  </si>
+  <si>
+    <t>8个字节</t>
   </si>
   <si>
     <t>decimal(M,D)</t>
@@ -1340,7 +1375,7 @@
     <t>bit</t>
   </si>
   <si>
-    <t>默认值1，范围1-64</t>
+    <t>1-64</t>
   </si>
   <si>
     <t>文本类型（字符串类型）</t>
@@ -1391,28 +1426,19 @@
     <t>date</t>
   </si>
   <si>
-    <t>日期---年月日</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
+    <t>日期---年月日 YYYY-MM-DD</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>时间---时分秒</t>
-  </si>
-  <si>
-    <t>HH:MM:SS</t>
+    <t>时间---时分秒 HH:MM:SS</t>
   </si>
   <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>日期和时间</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD HH:MM:SS</t>
+    <t>日期和时间 YYYY-MM-DD HH:MM:SS</t>
   </si>
   <si>
     <t>timestamp</t>
@@ -1433,9 +1459,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1483,13 +1509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1506,24 +1525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1531,28 +1534,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1566,16 +1547,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1596,6 +1569,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1605,8 +1585,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,6 +1618,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,8 +1652,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1649,13 +1675,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,43 +1753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,31 +1771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,19 +1801,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,13 +1843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,25 +1861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,26 +1875,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1889,7 +1912,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,16 +1932,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1934,6 +1957,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1942,10 +1980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1954,137 +1992,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2097,7 +2135,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2112,6 +2159,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2121,16 +2171,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2481,299 +2528,357 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="110.777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
     <col min="3" max="3" width="60.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="B4" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="2:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>17</v>
+      </c>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" ht="72" spans="2:2">
-      <c r="B34" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" ht="43.2" spans="2:2">
-      <c r="B35" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="72" spans="2:2">
+      <c r="B37" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" ht="43.2" spans="2:2">
       <c r="B38" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" ht="57.6" spans="2:2">
-      <c r="B41" s="10" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="57.6" spans="2:2">
+      <c r="B44" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="10"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A55:A56"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="下载：https://dev.mysql.com/downloads/mysql/5.7.html" tooltip="https://dev.mysql.com/downloads/mysql/5.7.html"/>
-    <hyperlink ref="B4" r:id="rId2" display="安装步骤：https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
-    <hyperlink ref="C9" r:id="rId3" display="https://blog.csdn.net/zztingfeng/article/details/80155624"/>
-    <hyperlink ref="B1" r:id="rId4" display="下载地址: https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip"/>
-    <hyperlink ref="B38" r:id="rId5" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
-    <hyperlink ref="B40" r:id="rId6" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
-    <hyperlink ref="B48" r:id="rId7" display="https://blog.csdn.net/qq_40147863/article/details/83051268"/>
-    <hyperlink ref="B49" r:id="rId8" display="https://downloads.mysql.com/archives/c-j/" tooltip="https://downloads.mysql.com/archives/c-j/"/>
-    <hyperlink ref="B53" r:id="rId9" display="https://blog.csdn.net/weixin_39609071/article/details/110866742"/>
-    <hyperlink ref="B55" r:id="rId10" display="https://spring.io/projects/spring-framework"/>
-    <hyperlink ref="B56" r:id="rId11" display="https://blog.csdn.net/lingyiwin/article/details/92171910"/>
-    <hyperlink ref="B59" r:id="rId12" display="https://blog.csdn.net/qq_17768279/article/details/102610136"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://dev.mysql.com/downloads/mysql/5.7.html" tooltip="https://dev.mysql.com/downloads/mysql/5.7.html"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://blog.csdn.net/weixin_43395911/article/details/99702121" tooltip="https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip" tooltip="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip"/>
+    <hyperlink ref="B41" r:id="rId4" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
+    <hyperlink ref="B43" r:id="rId5" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
+    <hyperlink ref="B51" r:id="rId6" display="https://blog.csdn.net/qq_40147863/article/details/83051268"/>
+    <hyperlink ref="B52" r:id="rId7" display="https://downloads.mysql.com/archives/c-j/" tooltip="https://downloads.mysql.com/archives/c-j/"/>
+    <hyperlink ref="B4" r:id="rId8" display="2693281934@qq.com/@Aa123456"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2784,1503 +2889,1506 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.7777777777778" style="7" customWidth="1"/>
+    <col min="1" max="1" width="25.7777777777778" style="10" customWidth="1"/>
     <col min="2" max="3" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+    <row r="1" s="6" customFormat="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:3">
-      <c r="A10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:3">
-      <c r="A14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="3:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:3">
+      <c r="A14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
       <c r="C15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:3">
-      <c r="A17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="1:3">
-      <c r="A28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>101</v>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" spans="1:3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>103</v>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
+      <c r="A34" s="13"/>
+      <c r="B34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="13"/>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A36" s="13"/>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="13"/>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" ht="28.8" spans="1:3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
-        <v>117</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="9"/>
-      <c r="B40" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="A41" s="13"/>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="13"/>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="A44" s="13"/>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="9" t="s">
-        <v>131</v>
+      <c r="A45" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="9" t="s">
-        <v>134</v>
+      <c r="A46" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="9" t="s">
-        <v>137</v>
+      <c r="A47" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="9" t="s">
-        <v>140</v>
+      <c r="A48" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="9" t="s">
-        <v>143</v>
+      <c r="A49" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="9" t="s">
-        <v>146</v>
+      <c r="A50" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="9" t="s">
-        <v>149</v>
+      <c r="A51" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="11" t="s">
-        <v>152</v>
+      <c r="A52" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="9"/>
+      <c r="A54" s="13"/>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="9"/>
+      <c r="A55" s="13"/>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="9"/>
+      <c r="A56" s="13"/>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="13"/>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="13"/>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="13"/>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="13"/>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="13"/>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="13"/>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="11" t="s">
-        <v>167</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="13"/>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="13"/>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="13"/>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="13"/>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="13"/>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="13"/>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="13"/>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="13"/>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="13"/>
       <c r="B72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="9" t="s">
-        <v>178</v>
-      </c>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="13"/>
       <c r="B73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="9"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="9"/>
+      <c r="A75" s="13"/>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="9"/>
+      <c r="A76" s="13"/>
       <c r="B76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="9"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="13"/>
       <c r="B77" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="9"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="13"/>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="9"/>
+      <c r="A79" s="13"/>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="13"/>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="13"/>
       <c r="B81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" ht="28.8" spans="1:2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:3">
-      <c r="A83" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="13"/>
+      <c r="B82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" ht="28.8" spans="1:2">
+      <c r="A83" s="13"/>
+      <c r="B83" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:3">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10" t="s">
-        <v>194</v>
+      <c r="A84" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:3">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10" t="s">
-        <v>196</v>
+      <c r="A85" s="13"/>
+      <c r="B85" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10" t="s">
-        <v>198</v>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:3">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10" t="s">
-        <v>200</v>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:3">
-      <c r="A88" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>203</v>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:3">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10" t="s">
-        <v>205</v>
+      <c r="A89" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" ht="72" spans="1:3">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A91" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:3">
-      <c r="A92" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="10"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" ht="72" spans="1:3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A92" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>215</v>
-      </c>
+      <c r="A93" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="14"/>
     </row>
     <row r="94" customFormat="1" spans="1:3">
-      <c r="A94" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" ht="57.6" spans="1:3">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>224</v>
+      <c r="A94" s="13"/>
+      <c r="B94" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:3">
+      <c r="A95" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="57.6" spans="1:3">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A99" s="9"/>
-      <c r="B99" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>228</v>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="57.6" spans="1:3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>230</v>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10" t="s">
-        <v>231</v>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>233</v>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10" t="s">
-        <v>234</v>
+      <c r="A103" s="13"/>
+      <c r="B103" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>236</v>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A105" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>239</v>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:3">
-      <c r="A107" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:3">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:3">
-      <c r="A111" s="9"/>
-      <c r="B111" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A112" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C112" s="10" t="s">
+      <c r="A106" s="13" t="s">
         <v>255</v>
       </c>
+      <c r="B106" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:3">
+      <c r="A108" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="1:3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="113" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A113" s="9"/>
-      <c r="B113" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:3">
-      <c r="A114" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>260</v>
+      <c r="A113" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:3">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>262</v>
+      <c r="A115" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:3">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>264</v>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:3">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="118" customFormat="1" spans="1:3">
-      <c r="A118" s="9"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-    </row>
-    <row r="119" customFormat="1" spans="1:2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="10"/>
-    </row>
-    <row r="120" s="4" customFormat="1" spans="1:3">
-      <c r="A120" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-    </row>
-    <row r="121" ht="158.4" spans="2:3">
-      <c r="B121" t="s">
-        <v>266</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" ht="43.2" spans="1:3">
-      <c r="A122" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" ht="57.6" spans="1:3">
-      <c r="A123" s="9"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124" ht="72" spans="1:3">
-      <c r="A124" s="9"/>
-      <c r="B124" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" ht="57.6" spans="1:3">
-      <c r="A125" s="9"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" customFormat="1" spans="1:3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" customFormat="1" spans="1:2">
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+    </row>
+    <row r="121" s="6" customFormat="1" spans="1:3">
+      <c r="A121" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+    </row>
+    <row r="122" ht="172.8" spans="2:3">
+      <c r="B122" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" ht="43.2" spans="1:3">
+      <c r="A123" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="124" ht="57.6" spans="1:3">
+      <c r="A124" s="13"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" ht="72" spans="1:3">
+      <c r="A125" s="13"/>
       <c r="B125" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="126" ht="43.2" spans="1:3">
-      <c r="A126" s="9"/>
-      <c r="B126" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" ht="57.6" spans="1:3">
+      <c r="A126" s="13"/>
+      <c r="B126" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="127" ht="43.2" spans="1:3">
-      <c r="A127" s="9"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="128" ht="57.6" spans="1:3">
-      <c r="A128" s="9"/>
-      <c r="B128" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="129" ht="86.4" spans="1:3">
-      <c r="A129" s="9"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="9"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10" t="s">
-        <v>282</v>
+      <c r="A127" s="13"/>
+      <c r="B127" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" ht="43.2" spans="1:3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" ht="57.6" spans="1:3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" ht="86.4" spans="1:3">
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="132" ht="86.4" spans="1:3">
-      <c r="A132" s="9"/>
-      <c r="B132" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="133" ht="57.6" spans="1:3">
-      <c r="A133" s="9"/>
-      <c r="B133" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="9"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10" t="s">
-        <v>288</v>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" ht="86.4" spans="1:3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" ht="57.6" spans="1:3">
+      <c r="A134" s="13"/>
+      <c r="B134" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="9"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10" t="s">
-        <v>289</v>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>292</v>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="9"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10" t="s">
-        <v>293</v>
+      <c r="A137" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="9"/>
-      <c r="B138" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>295</v>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="9"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10" t="s">
-        <v>296</v>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10" t="s">
-        <v>297</v>
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>299</v>
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="9"/>
-      <c r="B142" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>301</v>
+      <c r="A142" s="13"/>
+      <c r="B142" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="9"/>
-      <c r="B143" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>292</v>
+      <c r="A143" s="13"/>
+      <c r="B143" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="9"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10" t="s">
-        <v>303</v>
+      <c r="A144" s="13"/>
+      <c r="B144" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="9"/>
-      <c r="B145" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C145" s="10"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>306</v>
-      </c>
+      <c r="A146" s="13"/>
+      <c r="B146" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C146" s="14"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="9"/>
-      <c r="B147" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>308</v>
+      <c r="A147" s="13"/>
+      <c r="B147" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="9"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-    </row>
-    <row r="149" spans="3:3">
-      <c r="C149" s="10"/>
-    </row>
-    <row r="150" s="4" customFormat="1" spans="1:3">
-      <c r="A150" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-    </row>
-    <row r="151" ht="28.8" spans="2:3">
-      <c r="B151" t="s">
-        <v>310</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>311</v>
-      </c>
+      <c r="A148" s="13"/>
+      <c r="B148" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="13"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="14"/>
+    </row>
+    <row r="151" s="6" customFormat="1" spans="1:3">
+      <c r="A151" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" ht="28.8" spans="2:3">
       <c r="B152" t="s">
-        <v>312</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>313</v>
+        <v>328</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="153" ht="28.8" spans="2:3">
       <c r="B153" t="s">
-        <v>314</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3">
-      <c r="C154" s="10"/>
+        <v>330</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" ht="28.8" spans="2:3">
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="10"/>
-    </row>
-    <row r="156" s="4" customFormat="1" spans="1:3">
-      <c r="A156" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-    </row>
-    <row r="157" ht="43.2" spans="2:3">
-      <c r="B157" t="s">
-        <v>317</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
+      <c r="C155" s="14"/>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="14"/>
+    </row>
+    <row r="157" s="6" customFormat="1" spans="1:3">
+      <c r="A157" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+    </row>
+    <row r="158" ht="43.2" spans="2:3">
       <c r="B158" t="s">
-        <v>319</v>
-      </c>
-      <c r="C158" s="10"/>
+        <v>335</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" t="s">
-        <v>265</v>
-      </c>
-      <c r="C159" s="10"/>
+        <v>337</v>
+      </c>
+      <c r="C159" s="14"/>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" t="s">
-        <v>320</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>321</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C160" s="14"/>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" t="s">
-        <v>322</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>323</v>
+        <v>338</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" t="s">
-        <v>324</v>
-      </c>
-      <c r="C162" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>322</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>325</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C163" s="14"/>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>324</v>
-      </c>
-      <c r="C164" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" t="s">
-        <v>326</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>327</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C165" s="14"/>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>328</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>329</v>
+        <v>344</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>330</v>
-      </c>
-      <c r="C167" s="10"/>
-    </row>
-    <row r="168" spans="3:3">
-      <c r="C168" s="10"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B169" t="s">
-        <v>265</v>
-      </c>
-      <c r="C169" s="10"/>
+        <v>346</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" s="14"/>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="14"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="9"/>
+      <c r="A170" s="13" t="s">
+        <v>349</v>
+      </c>
       <c r="B170" t="s">
-        <v>332</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>333</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C170" s="14"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="9"/>
+      <c r="A171" s="13"/>
       <c r="B171" t="s">
-        <v>334</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>335</v>
+        <v>350</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="9"/>
+      <c r="A172" s="13"/>
       <c r="B172" t="s">
-        <v>336</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>337</v>
+        <v>352</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="9"/>
+      <c r="A173" s="13"/>
       <c r="B173" t="s">
-        <v>338</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="10"/>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C175" s="10"/>
-    </row>
-    <row r="176" spans="3:3">
-      <c r="C176" s="10"/>
+        <v>354</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="13"/>
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="14"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" s="14"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="10"/>
-    </row>
-    <row r="178" s="4" customFormat="1" spans="1:3">
-      <c r="A178" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-    </row>
-    <row r="179" ht="28.8" spans="1:3">
-      <c r="A179" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B179" t="s">
-        <v>266</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C181" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="183" s="6" customFormat="1" spans="1:3">
-      <c r="A183" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-    </row>
-    <row r="184" spans="2:3">
-      <c r="B184" t="s">
-        <v>346</v>
-      </c>
-      <c r="C184" s="10"/>
-    </row>
-    <row r="185" ht="43.2" spans="2:3">
+      <c r="C177" s="14"/>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="14"/>
+    </row>
+    <row r="179" s="6" customFormat="1" spans="1:3">
+      <c r="A179" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+    </row>
+    <row r="180" ht="28.8" spans="1:3">
+      <c r="A180" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" t="s">
+        <v>284</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" s="9" customFormat="1" spans="1:3">
+      <c r="A184" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="2:3">
       <c r="B185" t="s">
-        <v>347</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3">
+        <v>364</v>
+      </c>
+      <c r="C185" s="14"/>
+    </row>
+    <row r="186" ht="43.2" spans="2:3">
       <c r="B186" t="s">
-        <v>349</v>
-      </c>
-      <c r="C186" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3">
+        <v>365</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" t="s">
+        <v>367</v>
+      </c>
       <c r="C187" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="188" ht="43.2" spans="2:3">
-      <c r="B188" t="s">
-        <v>352</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="189" ht="43.2" spans="2:3">
       <c r="B189" t="s">
-        <v>354</v>
-      </c>
-      <c r="C189" t="s">
-        <v>355</v>
+        <v>370</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C190" t="s">
-        <v>357</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" t="s">
+        <v>374</v>
+      </c>
+      <c r="C191" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4290,36 +4398,36 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A52:A62"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A94:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A122:A135"/>
-    <mergeCell ref="A136:A147"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A95:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A123:A136"/>
+    <mergeCell ref="A137:A148"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B144:B145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4330,253 +4438,313 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="3" width="20.7777777777778" customWidth="1"/>
-    <col min="4" max="5" width="50.7777777777778" customWidth="1"/>
+    <col min="1" max="3" width="20.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="35.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="20.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="50.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:4">
+    <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" ht="35" customHeight="1" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="C3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>384</v>
+      </c>
+      <c r="E3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>387</v>
+      </c>
+      <c r="E4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>371</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>396</v>
+      </c>
+      <c r="E7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>374</v>
+      <c r="B8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" t="s">
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>401</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>402</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>382</v>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>408</v>
+      </c>
+      <c r="F11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B15" t="s">
-        <v>393</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>394</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="F15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B17" t="s">
-        <v>396</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="F16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" t="s">
-        <v>398</v>
+        <v>423</v>
+      </c>
+      <c r="F17" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>399</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="D19" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>407</v>
-      </c>
-      <c r="C21" t="s">
-        <v>408</v>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D22" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A12:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="451">
   <si>
     <t>Mysql5.7下载与安装</t>
   </si>
@@ -366,7 +366,8 @@
     <t>备份数据库(在DOS执行：管理员命令提示符 》bin目录)</t>
   </si>
   <si>
-    <t>mysqldump -u 用户名 -p -B 数据库1 数据库2 数据库n &gt; d:\\文件名.sql</t>
+    <t>mysqldump -u 用户名 -p -B 数据库1 数据库2 数据库n &gt; d:\\文件名.sql
+mysqldump -u root -p -B db_news &gt; d:\\backups.sql</t>
   </si>
   <si>
     <t>恢复数据库(进入Mysql命令行再执行：管理员命令提示符 》bin目录 》管理终端)</t>
@@ -1119,7 +1120,7 @@
     <t>alter table 表名 drop primary key</t>
   </si>
   <si>
-    <t>添加表数据</t>
+    <t>添加表字段</t>
   </si>
   <si>
     <t>选中数据库，类型要相同</t>
@@ -1152,6 +1153,54 @@
     <t>update 表名
     set key1 = 'value1'，key2 = 'value2'
     where key = 'value';</t>
+  </si>
+  <si>
+    <t>已有表，添加一列，加注释</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` ADD `字段名` VARCHAR(32) NOT NULL DEFAULT 'ii' comment '注释';</t>
+  </si>
+  <si>
+    <t>已有表，添加一列，在某列后加</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` ADD `新字段名` INT AFTER `旧字段名`;</t>
+  </si>
+  <si>
+    <t>已有表，添加多列</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` ADD (`字段名` VARCHAR(255),`字段名` int);</t>
+  </si>
+  <si>
+    <t>已有表，修改列</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` MODIFY `字段名` VARCHAR(60);</t>
+  </si>
+  <si>
+    <t>已有表，删除列</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` DROP `字段名`;</t>
+  </si>
+  <si>
+    <t>表名改为**</t>
+  </si>
+  <si>
+    <t>RENAME TABLE `旧表名` TO `新表名`;</t>
+  </si>
+  <si>
+    <t>修改表字符集为utf8</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` CHARACTER SET utf8</t>
+  </si>
+  <si>
+    <t>列名改为**</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` CHANGE `旧字段名` `新字段名` VARCHAR(77);</t>
   </si>
   <si>
     <t>事务的理解：dml语句操作(update, insert, delete)要么全部成功，要么全部失败</t>
@@ -1525,8 +1574,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,46 +1666,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1589,45 +1677,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1640,14 +1689,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,55 +1736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +1754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,13 +1796,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,43 +1892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,37 +1904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,24 +1921,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1908,11 +1939,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,21 +1983,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1972,6 +2012,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1980,10 +2029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1992,16 +2041,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2013,116 +2062,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2164,6 +2213,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2530,8 +2582,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2542,16 +2594,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2559,7 +2611,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2567,7 +2619,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2575,10 +2627,10 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
@@ -2611,14 +2663,14 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -2627,14 +2679,14 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -2780,26 +2832,26 @@
       </c>
     </row>
     <row r="37" ht="72" spans="2:2">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" ht="43.2" spans="2:2">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2809,12 +2861,12 @@
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="2:2">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2834,13 +2886,13 @@
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="14"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2848,7 +2900,7 @@
       <c r="A52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2889,16 +2941,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.7777777777778" style="10" customWidth="1"/>
-    <col min="2" max="3" width="80.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="90.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
@@ -3056,11 +3109,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" ht="28.8" spans="2:3">
       <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3097,28 +3150,28 @@
     </row>
     <row r="30" ht="28.8" spans="1:3">
       <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" ht="28.8" spans="1:3">
       <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3127,7 +3180,7 @@
       <c r="B33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3136,7 +3189,7 @@
       <c r="B34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3154,7 +3207,7 @@
       <c r="B36" t="s">
         <v>126</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3189,7 +3242,7 @@
     </row>
     <row r="40" ht="28.8" spans="1:3">
       <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C40" t="s">
@@ -3323,7 +3376,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B53" t="s">
@@ -3424,7 +3477,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B64" t="s">
@@ -3549,7 +3602,7 @@
     </row>
     <row r="83" ht="28.8" spans="1:2">
       <c r="A83" s="13"/>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3557,7 +3610,7 @@
       <c r="A84" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="15" t="s">
         <v>210</v>
       </c>
       <c r="C84" t="s">
@@ -3566,7 +3619,7 @@
     </row>
     <row r="85" customFormat="1" spans="1:3">
       <c r="A85" s="13"/>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>212</v>
       </c>
       <c r="C85" t="s">
@@ -3575,7 +3628,7 @@
     </row>
     <row r="86" customFormat="1" spans="1:3">
       <c r="A86" s="13"/>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>214</v>
       </c>
       <c r="C86" t="s">
@@ -3584,7 +3637,7 @@
     </row>
     <row r="87" customFormat="1" spans="1:3">
       <c r="A87" s="13"/>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C87" t="s">
@@ -3593,7 +3646,7 @@
     </row>
     <row r="88" customFormat="1" spans="1:3">
       <c r="A88" s="13"/>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C88" t="s">
@@ -3604,7 +3657,7 @@
       <c r="A89" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C89" t="s">
@@ -3613,7 +3666,7 @@
     </row>
     <row r="90" customFormat="1" spans="1:3">
       <c r="A90" s="13"/>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C90" t="s">
@@ -3622,10 +3675,10 @@
     </row>
     <row r="91" customFormat="1" ht="72" spans="1:3">
       <c r="A91" s="13"/>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="15" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3633,10 +3686,10 @@
       <c r="A92" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="15" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3644,17 +3697,17 @@
       <c r="A93" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C93" s="14"/>
+      <c r="C93" s="15"/>
     </row>
     <row r="94" customFormat="1" spans="1:3">
       <c r="A94" s="13"/>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="15" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3662,96 +3715,96 @@
       <c r="A95" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="15" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="28.8" spans="1:3">
       <c r="A96" s="13"/>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="15" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="43.2" spans="1:3">
       <c r="A97" s="13"/>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="15" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="98" customFormat="1" ht="57.6" spans="1:3">
       <c r="A98" s="13"/>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="15" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="57.6" spans="1:3">
       <c r="A99" s="13"/>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="15" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="28.8" spans="1:3">
       <c r="A100" s="13"/>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="15" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="28.8" spans="1:3">
       <c r="A101" s="13"/>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="15" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="28.8" spans="1:3">
       <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14" t="s">
+      <c r="B102" s="15"/>
+      <c r="C102" s="15" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="28.8" spans="1:3">
       <c r="A103" s="13"/>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="15" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="28.8" spans="1:3">
       <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14" t="s">
+      <c r="B104" s="15"/>
+      <c r="C104" s="15" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="28.8" spans="1:3">
       <c r="A105" s="13"/>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="15" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3759,19 +3812,19 @@
       <c r="A106" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="28.8" spans="1:3">
       <c r="A107" s="13"/>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="15" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3779,46 +3832,46 @@
       <c r="A108" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="28.8" spans="1:3">
       <c r="A109" s="13"/>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="15" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:3">
       <c r="A110" s="13"/>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="15" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="28.8" spans="1:3">
       <c r="A111" s="13"/>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="15" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:3">
       <c r="A112" s="13"/>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="15" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3826,19 +3879,19 @@
       <c r="A113" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="43.2" spans="1:3">
       <c r="A114" s="13"/>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="15" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3846,44 +3899,44 @@
       <c r="A115" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:3">
       <c r="A116" s="13"/>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="15" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:3">
       <c r="A117" s="13"/>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="15" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:3">
       <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
     </row>
     <row r="119" customFormat="1" spans="1:3">
       <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
     </row>
     <row r="120" customFormat="1" spans="1:2">
       <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="15"/>
     </row>
     <row r="121" s="6" customFormat="1" spans="1:3">
       <c r="A121" s="11" t="s">
@@ -3896,7 +3949,7 @@
       <c r="B122" t="s">
         <v>284</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="15" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3907,14 +3960,14 @@
       <c r="B123" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="15" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="124" ht="57.6" spans="1:3">
       <c r="A124" s="13"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="15" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3923,7 +3976,7 @@
       <c r="B125" t="s">
         <v>290</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="15" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3932,7 +3985,7 @@
       <c r="B126" t="s">
         <v>292</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="15" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3941,76 +3994,76 @@
       <c r="B127" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="15" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="128" ht="43.2" spans="1:3">
       <c r="A128" s="13"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="15" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="129" ht="57.6" spans="1:3">
       <c r="A129" s="13"/>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="15" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="130" ht="86.4" spans="1:3">
       <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14" t="s">
+      <c r="B130" s="15"/>
+      <c r="C130" s="15" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14" t="s">
+      <c r="B131" s="15"/>
+      <c r="C131" s="15" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14" t="s">
+      <c r="B132" s="15"/>
+      <c r="C132" s="15" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="133" ht="86.4" spans="1:3">
       <c r="A133" s="13"/>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="15" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="134" ht="57.6" spans="1:3">
       <c r="A134" s="13"/>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="15" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14" t="s">
+      <c r="B135" s="15"/>
+      <c r="C135" s="15" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14" t="s">
+      <c r="B136" s="15"/>
+      <c r="C136" s="15" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4018,109 +4071,109 @@
       <c r="A137" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="15" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14" t="s">
+      <c r="B138" s="15"/>
+      <c r="C138" s="15" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="13"/>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="15" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="13"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14" t="s">
+      <c r="B140" s="15"/>
+      <c r="C140" s="15" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="13"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14" t="s">
+      <c r="B141" s="15"/>
+      <c r="C141" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="13"/>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="15" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="13"/>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="15" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="13"/>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="15" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14" t="s">
+      <c r="B145" s="15"/>
+      <c r="C145" s="15" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="13"/>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C146" s="14"/>
+      <c r="C146" s="15"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="13"/>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="15" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="13"/>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="15" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="13"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="14"/>
+      <c r="C150" s="15"/>
     </row>
     <row r="151" s="6" customFormat="1" spans="1:3">
       <c r="A151" s="11" t="s">
@@ -4133,7 +4186,7 @@
       <c r="B152" t="s">
         <v>328</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="15" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4141,7 +4194,7 @@
       <c r="B153" t="s">
         <v>330</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C153" s="15" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4149,246 +4202,322 @@
       <c r="B154" t="s">
         <v>332</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="15" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="14"/>
+      <c r="C155" s="15"/>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="14"/>
-    </row>
-    <row r="157" s="6" customFormat="1" spans="1:3">
-      <c r="A157" s="11" t="s">
+      <c r="C156" s="15"/>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="15"/>
+    </row>
+    <row r="158" s="6" customFormat="1" spans="1:3">
+      <c r="A158" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-    </row>
-    <row r="158" ht="43.2" spans="2:3">
-      <c r="B158" t="s">
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" ht="43.2" spans="2:3">
+      <c r="B159" t="s">
         <v>335</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C159" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
-      <c r="B159" t="s">
-        <v>337</v>
-      </c>
-      <c r="C159" s="14"/>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" t="s">
-        <v>283</v>
-      </c>
-      <c r="C160" s="14"/>
+    <row r="160" spans="3:3">
+      <c r="C160" s="15"/>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C163" s="14"/>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>340</v>
-      </c>
-      <c r="C164" s="14" t="s">
         <v>343</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" t="s">
-        <v>342</v>
-      </c>
-      <c r="C165" s="14"/>
+        <v>345</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>344</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>346</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>347</v>
+        <v>349</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>348</v>
-      </c>
-      <c r="C168" s="14"/>
+        <v>351</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="14"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="C169" s="15"/>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="15"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
+        <v>353</v>
+      </c>
+      <c r="C171" s="15"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" t="s">
         <v>283</v>
       </c>
-      <c r="C170" s="14"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="13"/>
-      <c r="B171" t="s">
-        <v>350</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="13"/>
-      <c r="B172" t="s">
-        <v>352</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="13"/>
+      <c r="C172" s="15"/>
+    </row>
+    <row r="173" spans="2:3">
       <c r="B173" t="s">
         <v>354</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="13"/>
+    <row r="174" spans="2:3">
       <c r="B174" t="s">
         <v>356</v>
       </c>
-      <c r="C174" s="14" t="s">
+      <c r="C174" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="175" spans="3:3">
-      <c r="C175" s="14"/>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="10" t="s">
+    <row r="175" spans="2:3">
+      <c r="B175" t="s">
         <v>358</v>
       </c>
-      <c r="C176" s="14"/>
-    </row>
-    <row r="177" spans="3:3">
-      <c r="C177" s="14"/>
-    </row>
-    <row r="178" spans="3:3">
-      <c r="C178" s="14"/>
-    </row>
-    <row r="179" s="6" customFormat="1" spans="1:3">
-      <c r="A179" s="11" t="s">
+      <c r="C175" s="15"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" t="s">
+        <v>356</v>
+      </c>
+      <c r="C176" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-    </row>
-    <row r="180" ht="28.8" spans="1:3">
-      <c r="A180" s="10" t="s">
-        <v>359</v>
-      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" t="s">
+        <v>358</v>
+      </c>
+      <c r="C177" s="15"/>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" t="s">
+        <v>362</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
       <c r="B180" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" s="15"/>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" s="15"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>283</v>
+      </c>
+      <c r="C182" s="15"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="13"/>
+      <c r="B183" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="13"/>
+      <c r="B184" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="13"/>
+      <c r="B185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="13"/>
+      <c r="B186" t="s">
+        <v>372</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="15"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" s="15"/>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="15"/>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="15"/>
+    </row>
+    <row r="191" s="6" customFormat="1" spans="1:3">
+      <c r="A191" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" ht="28.8" spans="1:3">
+      <c r="A192" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B192" t="s">
         <v>284</v>
       </c>
-      <c r="C180" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C182" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="184" s="9" customFormat="1" spans="1:3">
-      <c r="A184" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-    </row>
-    <row r="185" spans="2:3">
-      <c r="B185" t="s">
-        <v>364</v>
-      </c>
-      <c r="C185" s="14"/>
-    </row>
-    <row r="186" ht="43.2" spans="2:3">
-      <c r="B186" t="s">
-        <v>365</v>
-      </c>
-      <c r="C186" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3">
-      <c r="B187" t="s">
-        <v>367</v>
-      </c>
-      <c r="C187" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3">
-      <c r="C188" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="189" ht="43.2" spans="2:3">
-      <c r="B189" t="s">
-        <v>370</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3">
-      <c r="B190" t="s">
-        <v>372</v>
-      </c>
-      <c r="C190" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3">
-      <c r="B191" t="s">
-        <v>374</v>
-      </c>
-      <c r="C191" t="s">
-        <v>375</v>
+      <c r="C192" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C194" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="196" s="9" customFormat="1" spans="1:3">
+      <c r="A196" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" t="s">
+        <v>380</v>
+      </c>
+      <c r="C197" s="15"/>
+    </row>
+    <row r="198" ht="43.2" spans="2:3">
+      <c r="B198" t="s">
+        <v>381</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" t="s">
+        <v>383</v>
+      </c>
+      <c r="C199" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" ht="43.2" spans="2:3">
+      <c r="B201" t="s">
+        <v>386</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" t="s">
+        <v>388</v>
+      </c>
+      <c r="C202" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" t="s">
+        <v>390</v>
+      </c>
+      <c r="C203" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4401,9 +4530,9 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A121:C121"/>
     <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A196:C196"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A53:A63"/>
@@ -4418,7 +4547,7 @@
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A123:A136"/>
     <mergeCell ref="A137:A148"/>
-    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A182:A186"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B123:B124"/>
@@ -4456,7 +4585,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4470,76 +4599,76 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="F3" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="E4" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F4" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4547,41 +4676,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="F7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4590,10 +4719,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4602,13 +4731,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4616,124 +4745,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="H12" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H13" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="F14" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="F15" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="F16" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="D20" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="D22" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="451">
-  <si>
-    <t>Mysql5.7下载与安装</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="448">
+  <si>
+    <t>Mysql5.7.19下载与安装</t>
   </si>
   <si>
     <t>下载地址</t>
@@ -28,24 +28,36 @@
     <t>https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip</t>
   </si>
   <si>
-    <t>下载：</t>
-  </si>
-  <si>
-    <t>https://dev.mysql.com/downloads/mysql/5.7.html</t>
-  </si>
-  <si>
-    <t>Oracle账号</t>
+    <t>Oracle账号，登录dev.mysql.com网站</t>
   </si>
   <si>
     <t>2693281934@qq.com/@Aa123456</t>
   </si>
   <si>
-    <t>安装步骤</t>
+    <t>MySQL 5.7.19详细下载安装配置教程</t>
   </si>
   <si>
     <t>https://blog.csdn.net/weixin_43395911/article/details/99702121</t>
   </si>
   <si>
+    <r>
+      <t>环境变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (分为用户变量和系统变量)</t>
+    </r>
+  </si>
+  <si>
+    <t>桌面》我的电脑》右击》属性》高级系统设置》高级》环境变量</t>
+  </si>
+  <si>
     <t>系统变量</t>
   </si>
   <si>
@@ -55,22 +67,44 @@
     <t>新建文件my.ini</t>
   </si>
   <si>
-    <t>D:\mysql-5.7.35-winx64目录下，新建文件my.ini,加内容要改安装路径</t>
+    <r>
+      <t>D:\mysql-5.7.19-winx64目录下，新建文件my.ini,加内容要改安装路径------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：这文件的当前目录有my.ini文件</t>
+    </r>
   </si>
   <si>
     <t>管理员身份打开cmd</t>
   </si>
   <si>
-    <t>开始--windows系统--命令提示符--右击</t>
-  </si>
-  <si>
-    <t>切换bin目录下</t>
-  </si>
-  <si>
-    <t>cd /D D:\mysql-5.7.19-winx64\bin</t>
-  </si>
-  <si>
-    <t>或  1.切换D盘：d:  2.切换路径：cd D:\mysql-5.7.19-winx64\bin</t>
+    <t>开始--windows系统--命令提示符--右击-。。。</t>
+  </si>
+  <si>
+    <t>cdm切换bin目录下</t>
+  </si>
+  <si>
+    <t>方法一：cd /D D:\mysql-5.7.19-winx64\bin</t>
+  </si>
+  <si>
+    <t>方法二：1.切换D盘：d:  2.切换路径：cd D:\mysql-5.7.19-winx64\bin</t>
   </si>
   <si>
     <t>注册服务:任务管理器-服务</t>
@@ -79,19 +113,19 @@
     <t>mysqld -install</t>
   </si>
   <si>
-    <t>安装mysql时出现应用程序无法正常启动（0xc000007b）--- https://blog.csdn.net/zztingfeng/article/details/80155624</t>
+    <t>报错：应用程序无法正常启动（0xc000007b）--- https://blog.csdn.net/zztingfeng/article/details/80155624</t>
+  </si>
+  <si>
+    <t>查看服务，打开服务管理器---不想看就算了</t>
+  </si>
+  <si>
+    <t>win + r   》   输入services.msc</t>
   </si>
   <si>
     <t>初始化</t>
   </si>
   <si>
-    <t>mysqld --initialize-insecure --user=mysql          看见数据data文件</t>
-  </si>
-  <si>
-    <t>打开服务管理器</t>
-  </si>
-  <si>
-    <t>win + r   》   输入services.msc</t>
+    <t>mysqld --initialize-insecure --user=mysql          D:\mysql-5.7.19-winx64出现data文件</t>
   </si>
   <si>
     <t>启动mysql服务</t>
@@ -100,13 +134,13 @@
     <t>net start mysql</t>
   </si>
   <si>
-    <t>查看启动的报错信息</t>
+    <t>查看启动的报错信息---不想看就算了</t>
   </si>
   <si>
     <t>mysqld --console</t>
   </si>
   <si>
-    <t>查看占用端口</t>
+    <t>查看占用端口---不想看就算了</t>
   </si>
   <si>
     <t>netstat -ano</t>
@@ -154,7 +188,7 @@
     <t>sc delete mysql</t>
   </si>
   <si>
-    <t>命令行连接mysql</t>
+    <t>命令行连接mysql---略略</t>
   </si>
   <si>
     <t>mysql -h 主机名 -P 端口 -u 用户名 -p密码(没空格，密码若不写，下行需要)启动后,连接mysql服务(数据库)指令</t>
@@ -163,10 +197,10 @@
     <t>mysql -h localhost -P 3306 -u root -proot123456            localhost可替换127.0.0.1</t>
   </si>
   <si>
-    <t>Navicat安装（14天免费）</t>
-  </si>
-  <si>
-    <t>下载地址: http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装</t>
+    <t>Navicat安装（14天免费）------ 略，要钱，用下面SQLyog</t>
+  </si>
+  <si>
+    <t>http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装</t>
   </si>
   <si>
     <t>名字：rafael  姓氏：lu   邮箱：2693281934@qq.com  密码：Aa123456</t>
@@ -178,10 +212,16 @@
     <t>本机MYSQL---右键---打开连接</t>
   </si>
   <si>
+    <t>创建数据库</t>
+  </si>
+  <si>
     <t>本机MYSQL---右键---新建数据库         数据库名：db01   字符集： 选utf8    排序规则：选utf8_bin</t>
   </si>
   <si>
     <t>db01---右键---打开数据库</t>
+  </si>
+  <si>
+    <t>创建表</t>
   </si>
   <si>
     <t>db01---表---右键---新建表         
@@ -205,18 +245,13 @@
     <t>https://sqlyog.en.softonic.com/</t>
   </si>
   <si>
+    <t>连接</t>
+  </si>
+  <si>
     <t>新建mysql-------连接名：rafael     别填数据库</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_</t>
     </r>
     <r>
@@ -240,28 +275,16 @@
     <t>db02---表---user---右键---打开表    填完点保存按钮，同方式打开表</t>
   </si>
   <si>
-    <t>点+ 新查询编辑器</t>
-  </si>
-  <si>
-    <t>文件---另保存      起名database,可操作SQL指令     选中指令，点执行查询     root@localhost---右键---刷新---ok</t>
-  </si>
-  <si>
-    <t>JAVA - JDK 1.8 API 帮助文档-中文版</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_40147863/article/details/83051268</t>
-  </si>
-  <si>
-    <t>Java通过驱动包（jar包）连接MySQL数据库</t>
-  </si>
-  <si>
-    <t>https://downloads.mysql.com/archives/c-j/</t>
-  </si>
-  <si>
-    <t>新建libs文件夹，放入驱动包</t>
-  </si>
-  <si>
-    <t>驱动包右键---Add as Library</t>
+    <t>Query查询编辑器</t>
+  </si>
+  <si>
+    <t>文件---另保存     选中SQL指令，点执行查询     root@localhost---右键---刷新---ok</t>
+  </si>
+  <si>
+    <t>mysql教学</t>
+  </si>
+  <si>
+    <t>https://www.runoob.com/mysql/mysql-insert-query.html</t>
   </si>
   <si>
     <t>SQL语句</t>
@@ -325,9 +348,6 @@
   </si>
   <si>
     <t>InnoDB</t>
-  </si>
-  <si>
-    <t>创建数据库</t>
   </si>
   <si>
     <t>create database `数据库名`;     加反引号可以规避关键字</t>
@@ -934,9 +954,6 @@
   </si>
   <si>
     <t>select key,key from 表1 right join 表2 on 表1.key = 表2.key</t>
-  </si>
-  <si>
-    <t>创建表</t>
   </si>
   <si>
     <t>选中数据库</t>
@@ -1512,7 +1529,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1552,6 +1569,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1566,9 +1599,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,16 +1628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,30 +1637,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,36 +1666,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1681,22 +1697,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1709,7 +1734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,7 +1755,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,25 +1791,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,13 +1827,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,49 +1875,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,37 +1917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,25 +1941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,6 +1958,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1939,17 +1985,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1973,16 +2034,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1997,30 +2058,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2029,10 +2066,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2041,137 +2078,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2205,10 +2242,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2217,20 +2260,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2582,8 +2631,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2594,16 +2643,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2611,326 +2660,336 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" s="18" customFormat="1" spans="2:3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" customFormat="1" spans="1:2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" s="18" customFormat="1"/>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="10" s="18" customFormat="1"/>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
-      <c r="B28" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" ht="72" spans="2:2">
-      <c r="B37" s="15" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" ht="43.2" spans="2:2">
-      <c r="B38" s="15" t="s">
+    <row r="40" ht="72" spans="1:2">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    </row>
+    <row r="41" ht="43.2" spans="2:2">
+      <c r="B41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="19" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" ht="57.6" spans="2:2">
-      <c r="B44" s="15" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="47" ht="57.6" spans="1:2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="15"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="19" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="B50" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="16"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://dev.mysql.com/downloads/mysql/5.7.html" tooltip="https://dev.mysql.com/downloads/mysql/5.7.html"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://blog.csdn.net/weixin_43395911/article/details/99702121" tooltip="https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip" tooltip="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip"/>
-    <hyperlink ref="B41" r:id="rId4" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
-    <hyperlink ref="B43" r:id="rId5" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
-    <hyperlink ref="B51" r:id="rId6" display="https://blog.csdn.net/qq_40147863/article/details/83051268"/>
-    <hyperlink ref="B52" r:id="rId7" display="https://downloads.mysql.com/archives/c-j/" tooltip="https://downloads.mysql.com/archives/c-j/"/>
-    <hyperlink ref="B4" r:id="rId8" display="2693281934@qq.com/@Aa123456"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://blog.csdn.net/weixin_43395911/article/details/99702121" tooltip="https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip" tooltip="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip"/>
+    <hyperlink ref="B44" r:id="rId3" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
+    <hyperlink ref="B46" r:id="rId4" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
+    <hyperlink ref="B3" r:id="rId5" display="2693281934@qq.com/@Aa123456"/>
+    <hyperlink ref="B34" r:id="rId6" display="http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2941,10 +3000,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2954,1610 +3013,1621 @@
     <col min="3" max="3" width="90.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:3">
+    <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:3">
+      <c r="A9" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:3">
+      <c r="A12" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+      <c r="C14" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="16" s="7" customFormat="1" spans="1:3">
+      <c r="A16" s="14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="1:3">
-      <c r="A14" s="12" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15"/>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:3">
-      <c r="A17" s="11" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="15"/>
+      <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="15"/>
+      <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="2:3">
+      <c r="B27" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" s="16" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="25" ht="28.8" spans="2:3">
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:3">
+      <c r="A31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:3">
-      <c r="A29" s="11" t="s">
+      <c r="C32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15" t="s">
+    </row>
+    <row r="33" ht="28.8" spans="1:3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" ht="28.8" spans="1:3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="2" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C36" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="2" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="15"/>
+      <c r="B38" t="s">
         <v>124</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="13"/>
-      <c r="B36" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B39" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="13" t="s">
+      <c r="C39" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15"/>
+      <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="13"/>
-      <c r="B38" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="15"/>
+      <c r="B41" t="s">
         <v>131</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="13"/>
-      <c r="B39" t="s">
+    <row r="42" ht="28.8" spans="1:3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" ht="28.8" spans="1:3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="15"/>
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13"/>
-      <c r="B41" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B44" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="13" t="s">
+      <c r="C44" t="s">
         <v>139</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="15"/>
+      <c r="B45" t="s">
         <v>140</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13"/>
-      <c r="B43" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="15"/>
+      <c r="B46" t="s">
         <v>142</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="13"/>
-      <c r="B44" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B47" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="13" t="s">
+      <c r="C47" t="s">
         <v>146</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B48" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="13" t="s">
+      <c r="C48" t="s">
         <v>149</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B49" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="13" t="s">
+      <c r="C49" t="s">
         <v>152</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B50" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="13" t="s">
+      <c r="C50" t="s">
         <v>155</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B51" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="13" t="s">
+      <c r="C51" t="s">
         <v>158</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B52" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="13" t="s">
+      <c r="C52" t="s">
         <v>161</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="13" t="s">
+      <c r="C53" t="s">
         <v>164</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B54" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="13" t="s">
+      <c r="C54" t="s">
         <v>167</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B55" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="16" t="s">
+      <c r="C55" t="s">
         <v>170</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15"/>
+      <c r="B56" t="s">
         <v>171</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="13"/>
-      <c r="B54" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="15"/>
+      <c r="B57" t="s">
         <v>173</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="13"/>
-      <c r="B55" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="15"/>
+      <c r="B58" t="s">
         <v>175</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="15"/>
+      <c r="B59" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="13"/>
-      <c r="B56" t="s">
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="15"/>
+      <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="13"/>
-      <c r="B57" t="s">
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="15"/>
+      <c r="B61" t="s">
         <v>178</v>
       </c>
-      <c r="C57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="13"/>
-      <c r="B58" t="s">
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="15"/>
+      <c r="B62" t="s">
         <v>179</v>
       </c>
-      <c r="C58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="13"/>
-      <c r="B59" t="s">
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="15"/>
+      <c r="B63" t="s">
         <v>180</v>
       </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="13"/>
-      <c r="B60" t="s">
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="15"/>
+      <c r="B64" t="s">
         <v>181</v>
       </c>
-      <c r="C60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="13"/>
-      <c r="B61" t="s">
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="15"/>
+      <c r="B65" t="s">
         <v>182</v>
       </c>
-      <c r="C61" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="13"/>
-      <c r="B62" t="s">
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="13"/>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>184</v>
       </c>
-      <c r="C63" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="16" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="15"/>
+      <c r="B67" t="s">
         <v>185</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="15"/>
+      <c r="B68" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="13"/>
-      <c r="B65" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="15"/>
+      <c r="B69" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="13"/>
-      <c r="B66" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="15"/>
+      <c r="B70" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="13"/>
-      <c r="B67" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="15"/>
+      <c r="B71" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="13"/>
-      <c r="B68" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="15"/>
+      <c r="B72" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="13"/>
-      <c r="B69" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="15"/>
+      <c r="B73" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="13"/>
-      <c r="B70" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="15"/>
+      <c r="B74" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="13"/>
-      <c r="B71" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="15"/>
+      <c r="B75" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="13"/>
-      <c r="B72" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="15" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="13"/>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="13" t="s">
+      <c r="C76" t="s">
         <v>196</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="15"/>
+      <c r="B77" t="s">
         <v>197</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="15"/>
+      <c r="B78" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="13"/>
-      <c r="B75" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="15"/>
+      <c r="B79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="13"/>
-      <c r="B76" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="15"/>
+      <c r="B80" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="13"/>
-      <c r="B77" t="s">
+      <c r="C80" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="13"/>
-      <c r="B78" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="15"/>
+      <c r="B81" t="s">
         <v>202</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="15"/>
+      <c r="B82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="13"/>
-      <c r="B79" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="15"/>
+      <c r="B83" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="13"/>
-      <c r="B80" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="15"/>
+      <c r="B84" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="13"/>
-      <c r="B81" t="s">
+    <row r="85" ht="28.8" spans="1:2">
+      <c r="A85" s="15"/>
+      <c r="B85" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="13"/>
-      <c r="B82" t="s">
+    <row r="86" customFormat="1" spans="1:3">
+      <c r="A86" s="15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="83" ht="28.8" spans="1:2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="15" t="s">
+      <c r="B86" s="16" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:3">
-      <c r="A84" s="13" t="s">
+      <c r="C86" t="s">
         <v>209</v>
       </c>
-      <c r="B84" s="15" t="s">
+    </row>
+    <row r="87" customFormat="1" spans="1:3">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C87" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="1:3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="15" t="s">
+    <row r="88" customFormat="1" spans="1:3">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C88" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="1:3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="15" t="s">
+    <row r="89" customFormat="1" spans="1:3">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C89" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="1:3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="15" t="s">
+    <row r="90" customFormat="1" spans="1:3">
+      <c r="A90" s="15"/>
+      <c r="B90" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="1:3">
-      <c r="A88" s="13"/>
-      <c r="B88" s="15" t="s">
+    <row r="91" customFormat="1" spans="1:3">
+      <c r="A91" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B91" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:3">
-      <c r="A89" s="13" t="s">
+      <c r="C91" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="15" t="s">
+    </row>
+    <row r="92" customFormat="1" spans="1:3">
+      <c r="A92" s="15"/>
+      <c r="B92" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C92" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="1:3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="15" t="s">
+    <row r="93" customFormat="1" ht="72" spans="1:3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C93" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="91" customFormat="1" ht="72" spans="1:3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="15" t="s">
+    <row r="94" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A94" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="B94" s="16" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="92" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A92" s="13" t="s">
+      <c r="C94" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B92" s="15" t="s">
+    </row>
+    <row r="95" customFormat="1" spans="1:3">
+      <c r="A95" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="B95" s="16" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:3">
-      <c r="A93" s="13" t="s">
+      <c r="C95" s="16"/>
+    </row>
+    <row r="96" customFormat="1" spans="1:3">
+      <c r="A96" s="15"/>
+      <c r="B96" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="C96" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C93" s="15"/>
-    </row>
-    <row r="94" customFormat="1" spans="1:3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="15" t="s">
+    </row>
+    <row r="97" customFormat="1" spans="1:3">
+      <c r="A97" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="B97" s="16" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:3">
-      <c r="A95" s="13" t="s">
+      <c r="C97" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="15" t="s">
+    </row>
+    <row r="98" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A98" s="15"/>
+      <c r="B98" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C98" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="96" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="15" t="s">
+    <row r="99" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A99" s="15"/>
+      <c r="B99" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C99" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="97" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="15" t="s">
+    <row r="100" customFormat="1" ht="57.6" spans="1:3">
+      <c r="A100" s="15"/>
+      <c r="B100" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C100" s="16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" customFormat="1" ht="57.6" spans="1:3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="15" t="s">
+    <row r="101" customFormat="1" ht="57.6" spans="1:3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C101" s="16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="99" customFormat="1" ht="57.6" spans="1:3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="15" t="s">
+    <row r="102" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A102" s="15"/>
+      <c r="B102" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C102" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="100" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="15" t="s">
+    <row r="103" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A103" s="15"/>
+      <c r="B103" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C103" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="101" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="15" t="s">
+    <row r="104" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A104" s="15"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="15" t="s">
+    </row>
+    <row r="105" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A105" s="15"/>
+      <c r="B105" s="16" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="102" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15" t="s">
+      <c r="C105" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="103" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15" t="s">
+    <row r="106" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A106" s="15"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C103" s="15" t="s">
+    </row>
+    <row r="107" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A107" s="15"/>
+      <c r="B107" s="16" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="104" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15" t="s">
+      <c r="C107" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="105" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A105" s="13"/>
-      <c r="B105" s="15" t="s">
+    <row r="108" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A108" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="B108" s="16" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="106" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A106" s="13" t="s">
+      <c r="C108" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B106" s="15" t="s">
+    </row>
+    <row r="109" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A109" s="15"/>
+      <c r="B109" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C109" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="107" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A107" s="13"/>
-      <c r="B107" s="15" t="s">
+    <row r="110" customFormat="1" spans="1:3">
+      <c r="A110" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="B110" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:3">
-      <c r="A108" s="13" t="s">
+      <c r="C110" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B108" s="15" t="s">
+    </row>
+    <row r="111" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A111" s="15"/>
+      <c r="B111" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C111" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="109" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="15" t="s">
+    <row r="112" customFormat="1" spans="1:3">
+      <c r="A112" s="15"/>
+      <c r="B112" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C112" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="110" customFormat="1" spans="1:3">
-      <c r="A110" s="13"/>
-      <c r="B110" s="15" t="s">
+    <row r="113" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A113" s="15"/>
+      <c r="B113" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C113" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="111" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A111" s="13"/>
-      <c r="B111" s="15" t="s">
+    <row r="114" customFormat="1" spans="1:3">
+      <c r="A114" s="15"/>
+      <c r="B114" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C114" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="112" customFormat="1" spans="1:3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15" t="s">
+    <row r="115" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A115" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="B115" s="16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A113" s="13" t="s">
+      <c r="C115" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B113" s="15" t="s">
+    </row>
+    <row r="116" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A116" s="15"/>
+      <c r="B116" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C116" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="114" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A114" s="13"/>
-      <c r="B114" s="15" t="s">
+    <row r="117" customFormat="1" spans="1:3">
+      <c r="A117" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="B117" s="16" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:3">
-      <c r="A115" s="13" t="s">
+      <c r="C117" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="15" t="s">
+    </row>
+    <row r="118" customFormat="1" spans="1:3">
+      <c r="A118" s="15"/>
+      <c r="B118" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C118" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="116" customFormat="1" spans="1:3">
-      <c r="A116" s="13"/>
-      <c r="B116" s="15" t="s">
+    <row r="119" customFormat="1" spans="1:3">
+      <c r="A119" s="15"/>
+      <c r="B119" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C119" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="117" customFormat="1" spans="1:3">
-      <c r="A117" s="13"/>
-      <c r="B117" s="15" t="s">
+    <row r="120" customFormat="1" spans="1:3">
+      <c r="A120" s="15"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+    </row>
+    <row r="121" customFormat="1" spans="1:3">
+      <c r="A121" s="15"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+    </row>
+    <row r="122" customFormat="1" spans="1:2">
+      <c r="A122" s="15"/>
+      <c r="B122" s="16"/>
+    </row>
+    <row r="123" s="6" customFormat="1" spans="1:3">
+      <c r="A123" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+    </row>
+    <row r="124" ht="172.8" spans="2:3">
+      <c r="B124" t="s">
         <v>281</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C124" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="118" customFormat="1" spans="1:3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-    </row>
-    <row r="119" customFormat="1" spans="1:3">
-      <c r="A119" s="13"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-    </row>
-    <row r="120" customFormat="1" spans="1:2">
-      <c r="A120" s="13"/>
-      <c r="B120" s="15"/>
-    </row>
-    <row r="121" s="6" customFormat="1" spans="1:3">
-      <c r="A121" s="11" t="s">
+    <row r="125" ht="43.2" spans="1:3">
+      <c r="A125" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-    </row>
-    <row r="122" ht="172.8" spans="2:3">
-      <c r="B122" t="s">
+      <c r="B125" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C125" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="123" ht="43.2" spans="1:3">
-      <c r="A123" s="13" t="s">
+    <row r="126" ht="57.6" spans="1:3">
+      <c r="A126" s="15"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B123" s="2" t="s">
+    </row>
+    <row r="127" ht="72" spans="1:3">
+      <c r="A127" s="15"/>
+      <c r="B127" t="s">
         <v>287</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C127" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="124" ht="57.6" spans="1:3">
-      <c r="A124" s="13"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="15" t="s">
+    <row r="128" ht="57.6" spans="1:3">
+      <c r="A128" s="15"/>
+      <c r="B128" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="125" ht="72" spans="1:3">
-      <c r="A125" s="13"/>
-      <c r="B125" t="s">
+      <c r="C128" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C125" s="15" t="s">
+    </row>
+    <row r="129" ht="43.2" spans="1:3">
+      <c r="A129" s="15"/>
+      <c r="B129" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="126" ht="57.6" spans="1:3">
-      <c r="A126" s="13"/>
-      <c r="B126" t="s">
+      <c r="C129" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C126" s="15" t="s">
+    </row>
+    <row r="130" ht="43.2" spans="1:3">
+      <c r="A130" s="15"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="127" ht="43.2" spans="1:3">
-      <c r="A127" s="13"/>
-      <c r="B127" s="2" t="s">
+    <row r="131" ht="57.6" spans="1:3">
+      <c r="A131" s="15"/>
+      <c r="B131" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C131" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="128" ht="43.2" spans="1:3">
-      <c r="A128" s="13"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="15" t="s">
+    <row r="132" ht="86.4" spans="1:3">
+      <c r="A132" s="15"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="129" ht="57.6" spans="1:3">
-      <c r="A129" s="13"/>
-      <c r="B129" s="15" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="15"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C129" s="15" t="s">
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="15"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="130" ht="86.4" spans="1:3">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15" t="s">
+    <row r="135" ht="86.4" spans="1:3">
+      <c r="A135" s="15"/>
+      <c r="B135" s="16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="13"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15" t="s">
+      <c r="C135" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="13"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15" t="s">
+    <row r="136" ht="57.6" spans="1:3">
+      <c r="A136" s="15"/>
+      <c r="B136" s="16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="133" ht="86.4" spans="1:3">
-      <c r="A133" s="13"/>
-      <c r="B133" s="15" t="s">
+      <c r="C136" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C133" s="15" t="s">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="15"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="134" ht="57.6" spans="1:3">
-      <c r="A134" s="13"/>
-      <c r="B134" s="15" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="15"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C134" s="15" t="s">
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="15" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="13"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15" t="s">
+      <c r="B139" s="16" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="13"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15" t="s">
+      <c r="C139" s="16" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="13" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="15"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B137" s="15" t="s">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="15"/>
+      <c r="B141" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C141" s="16" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="13"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="15"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="13"/>
-      <c r="B139" s="15" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" s="15"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C139" s="15" t="s">
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="15"/>
+      <c r="B144" s="16" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="13"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15" t="s">
+      <c r="C144" s="16" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="13"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" s="15"/>
+      <c r="B145" s="16" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="13"/>
-      <c r="B142" s="15" t="s">
+      <c r="C145" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C142" s="15" t="s">
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="15"/>
+      <c r="B146" s="16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="13"/>
-      <c r="B143" s="15" t="s">
+      <c r="C146" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="15"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C143" s="15" t="s">
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="15"/>
+      <c r="B148" s="16" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="13"/>
-      <c r="B144" s="15" t="s">
+      <c r="C148" s="16"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="15"/>
+      <c r="B149" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C144" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="13"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15" t="s">
+      <c r="C149" s="16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="13"/>
-      <c r="B146" s="15" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" s="15"/>
+      <c r="B150" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C146" s="15"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="13"/>
-      <c r="B147" s="15" t="s">
+      <c r="C150" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C147" s="15" t="s">
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="15"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="16"/>
+    </row>
+    <row r="153" s="6" customFormat="1" spans="1:3">
+      <c r="A153" s="13" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="13"/>
-      <c r="B148" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="13"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-    </row>
-    <row r="150" spans="3:3">
-      <c r="C150" s="15"/>
-    </row>
-    <row r="151" s="6" customFormat="1" spans="1:3">
-      <c r="A151" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-    </row>
-    <row r="152" ht="28.8" spans="2:3">
-      <c r="B152" t="s">
-        <v>328</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="153" ht="28.8" spans="2:3">
-      <c r="B153" t="s">
-        <v>330</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>331</v>
-      </c>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" ht="28.8" spans="2:3">
       <c r="B154" t="s">
+        <v>325</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="155" ht="28.8" spans="2:3">
+      <c r="B155" t="s">
+        <v>327</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" ht="28.8" spans="2:3">
+      <c r="B156" t="s">
+        <v>329</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="16"/>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="16"/>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="16"/>
+    </row>
+    <row r="160" s="6" customFormat="1" spans="1:3">
+      <c r="A160" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+    </row>
+    <row r="161" ht="43.2" spans="2:3">
+      <c r="B161" t="s">
         <v>332</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C161" s="16" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
-      <c r="C155" s="15"/>
-    </row>
-    <row r="156" spans="3:3">
-      <c r="C156" s="15"/>
-    </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="15"/>
-    </row>
-    <row r="158" s="6" customFormat="1" spans="1:3">
-      <c r="A158" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-    </row>
-    <row r="159" ht="43.2" spans="2:3">
-      <c r="B159" t="s">
-        <v>335</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="160" spans="3:3">
-      <c r="C160" s="15"/>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161" t="s">
-        <v>337</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162" t="s">
-        <v>339</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>340</v>
-      </c>
+    <row r="162" spans="3:3">
+      <c r="C162" s="16"/>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>341</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>342</v>
+        <v>334</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>343</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>344</v>
+        <v>336</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" t="s">
-        <v>345</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>346</v>
+        <v>338</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>347</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>348</v>
+        <v>340</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>349</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>350</v>
+        <v>342</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>351</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="15"/>
-    </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="15"/>
-    </row>
-    <row r="171" spans="2:3">
-      <c r="B171" t="s">
-        <v>353</v>
-      </c>
-      <c r="C171" s="15"/>
-    </row>
-    <row r="172" spans="2:3">
-      <c r="B172" t="s">
-        <v>283</v>
-      </c>
-      <c r="C172" s="15"/>
+        <v>344</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" t="s">
+        <v>346</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="16"/>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="16"/>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>354</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>355</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C173" s="16"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" t="s">
-        <v>356</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>357</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C174" s="16"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>358</v>
-      </c>
-      <c r="C175" s="15"/>
+        <v>351</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
-        <v>356</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>358</v>
-      </c>
-      <c r="C177" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>360</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>361</v>
+        <v>353</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>362</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>363</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C179" s="16"/>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
+        <v>357</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="15"/>
+      <c r="B185" t="s">
+        <v>363</v>
+      </c>
+      <c r="C185" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C180" s="15"/>
-    </row>
-    <row r="181" spans="3:3">
-      <c r="C181" s="15"/>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="13" t="s">
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="15"/>
+      <c r="B186" t="s">
         <v>365</v>
       </c>
-      <c r="B182" t="s">
-        <v>283</v>
-      </c>
-      <c r="C182" s="15"/>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="13"/>
-      <c r="B183" t="s">
+      <c r="C186" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C183" s="15" t="s">
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="15"/>
+      <c r="B187" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="13"/>
-      <c r="B184" t="s">
+      <c r="C187" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C184" s="15" t="s">
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="15"/>
+      <c r="B188" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="13"/>
-      <c r="B185" t="s">
+      <c r="C188" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="15" t="s">
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="16"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="10" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="13"/>
-      <c r="B186" t="s">
+      <c r="C190" s="16"/>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="16"/>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="16"/>
+    </row>
+    <row r="193" s="6" customFormat="1" spans="1:3">
+      <c r="A193" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C186" s="15" t="s">
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+    </row>
+    <row r="194" ht="28.8" spans="1:3">
+      <c r="A194" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B194" t="s">
+        <v>281</v>
+      </c>
+      <c r="C194" s="16" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="187" spans="3:3">
-      <c r="C187" s="15"/>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="10" t="s">
+    <row r="196" spans="1:3">
+      <c r="A196" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C188" s="15"/>
-    </row>
-    <row r="189" spans="3:3">
-      <c r="C189" s="15"/>
-    </row>
-    <row r="190" spans="3:3">
-      <c r="C190" s="15"/>
-    </row>
-    <row r="191" s="6" customFormat="1" spans="1:3">
-      <c r="A191" s="11" t="s">
+      <c r="C196" t="s">
         <v>375</v>
       </c>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" ht="28.8" spans="1:3">
-      <c r="A192" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B192" t="s">
-        <v>284</v>
-      </c>
-      <c r="C192" s="15" t="s">
+    </row>
+    <row r="198" s="9" customFormat="1" spans="1:3">
+      <c r="A198" s="13" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C194" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="196" s="9" customFormat="1" spans="1:3">
-      <c r="A196" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-    </row>
-    <row r="197" spans="2:3">
-      <c r="B197" t="s">
-        <v>380</v>
-      </c>
-      <c r="C197" s="15"/>
-    </row>
-    <row r="198" ht="43.2" spans="2:3">
-      <c r="B198" t="s">
-        <v>381</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>382</v>
-      </c>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" t="s">
+        <v>377</v>
+      </c>
+      <c r="C199" s="16"/>
+    </row>
+    <row r="200" ht="43.2" spans="2:3">
+      <c r="B200" t="s">
+        <v>378</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" t="s">
+        <v>380</v>
+      </c>
+      <c r="C201" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="203" ht="43.2" spans="2:3">
+      <c r="B203" t="s">
         <v>383</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C203" s="16" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
-      <c r="C200" t="s">
+    <row r="204" spans="2:3">
+      <c r="B204" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="201" ht="43.2" spans="2:3">
-      <c r="B201" t="s">
+      <c r="C204" t="s">
         <v>386</v>
       </c>
-      <c r="C201" s="15" t="s">
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="202" spans="2:3">
-      <c r="B202" t="s">
+      <c r="C205" t="s">
         <v>388</v>
-      </c>
-      <c r="C202" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3">
-      <c r="B203" t="s">
-        <v>390</v>
-      </c>
-      <c r="C203" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="A64:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A95:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A123:A136"/>
-    <mergeCell ref="A137:A148"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A55:A65"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A76:A84"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A125:A138"/>
+    <mergeCell ref="A139:A150"/>
+    <mergeCell ref="A184:A188"/>
     <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B146:B147"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.runoob.com/mysql/mysql-insert-query.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4585,7 +4655,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4599,76 +4669,76 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" t="s">
         <v>399</v>
-      </c>
-      <c r="C3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4676,41 +4746,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4719,10 +4789,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4731,13 +4801,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4745,124 +4815,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -41,6 +41,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>环境变量</t>
     </r>
     <r>
@@ -68,6 +75,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>D:\mysql-5.7.19-winx64目录下，新建文件my.ini,加内容要改安装路径------</t>
     </r>
     <r>
@@ -107,7 +121,7 @@
     <t>方法二：1.切换D盘：d:  2.切换路径：cd D:\mysql-5.7.19-winx64\bin</t>
   </si>
   <si>
-    <t>注册服务:任务管理器-服务</t>
+    <t>1.注册服务:任务管理器-服务</t>
   </si>
   <si>
     <t>mysqld -install</t>
@@ -122,13 +136,13 @@
     <t>win + r   》   输入services.msc</t>
   </si>
   <si>
-    <t>初始化</t>
-  </si>
-  <si>
-    <t>mysqld --initialize-insecure --user=mysql          D:\mysql-5.7.19-winx64出现data文件</t>
-  </si>
-  <si>
-    <t>启动mysql服务</t>
+    <t>2.初始化</t>
+  </si>
+  <si>
+    <t>mysqld --initialize-insecure --user=mysql         D:\mysql-5.7.19-winx64出现data文件</t>
+  </si>
+  <si>
+    <t>3.启动mysql服务</t>
   </si>
   <si>
     <t>net start mysql</t>
@@ -152,31 +166,31 @@
     <t>net stop mysql</t>
   </si>
   <si>
-    <t>进入管理终端</t>
+    <t>1.进入管理终端，先启动mysql服务</t>
   </si>
   <si>
     <t>mysql -u root -p</t>
   </si>
   <si>
-    <t>使用mysql</t>
+    <t>2.使用mysql</t>
   </si>
   <si>
     <t>use mysql;</t>
   </si>
   <si>
-    <t>设置myspl用户名与密码</t>
+    <t>3.设置myspl用户名与密码</t>
   </si>
   <si>
     <t>update user set authentication_string=password('root123456') where user='root' and Host='localhost';</t>
   </si>
   <si>
-    <t>刷新权限</t>
+    <t>4.刷新权限</t>
   </si>
   <si>
     <t>flush privileges;</t>
   </si>
   <si>
-    <t>退出管理终端</t>
+    <t>5.退出管理终端</t>
   </si>
   <si>
     <t>quit</t>
@@ -252,6 +266,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_</t>
     </r>
     <r>
@@ -281,7 +303,7 @@
     <t>文件---另保存     选中SQL指令，点执行查询     root@localhost---右键---刷新---ok</t>
   </si>
   <si>
-    <t>mysql教学</t>
+    <t>mysql菜鸟教学</t>
   </si>
   <si>
     <t>https://www.runoob.com/mysql/mysql-insert-query.html</t>
@@ -399,7 +421,7 @@
     <t>恢复数据库（在SQLyog执行）</t>
   </si>
   <si>
-    <t>打开backups.sql复制到Query查询编辑器中，全选执行查询，root@localhost右键刷新</t>
+    <t>文件---打开backups.sql，全选执行查询，root@localhost右键刷新</t>
   </si>
   <si>
     <t>备份数据库的表(在DOS执行：管理员命令提示符 》bin目录)</t>
@@ -1524,10 +1546,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1600,7 +1622,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,37 +1651,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,18 +1664,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1689,10 +1696,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1701,6 +1708,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1714,14 +1728,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1773,43 +1795,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,55 +1843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,7 +1867,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,13 +1945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,31 +1969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,8 +1986,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1985,17 +2007,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2019,16 +2035,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2048,13 +2066,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2066,10 +2088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2078,137 +2100,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2274,9 +2296,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2631,8 +2650,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2861,7 +2880,7 @@
       <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="22"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
@@ -3002,8 +3021,8 @@
   <sheetPr/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,7 @@
     <t>查询（单表和多表）</t>
   </si>
   <si>
-    <t xml:space="preserve">选中数据库,查询select、*所有字段、from从哪个表
-</t>
+    <t>选中数据库,查询select、*所有字段、from从哪个表</t>
   </si>
   <si>
     <t>select * from 表名;</t>
@@ -1546,10 +1545,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1628,14 +1627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1651,14 +1642,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1666,6 +1666,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1696,14 +1719,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1721,22 +1736,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1795,7 +1794,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,55 +1884,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,109 +1962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,15 +1979,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2010,8 +2000,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2031,11 +2021,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2047,6 +2043,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,21 +2079,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2088,28 +2087,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2121,112 +2120,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2650,8 +2649,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3021,8 +3020,8 @@
   <sheetPr/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3234,7 +3233,7 @@
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" ht="28.8" spans="1:3">
+    <row r="32" spans="1:3">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
         <v>112</v>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="450">
   <si>
     <t>Mysql5.7.19下载与安装</t>
   </si>
@@ -977,6 +977,12 @@
     <t>select key,key from 表1 right join 表2 on 表1.key = 表2.key</t>
   </si>
   <si>
+    <t>根据查询结果创建新表</t>
+  </si>
+  <si>
+    <t>create table `新表名` select other1.id role_id,other2.id router_id from role other1,router other2;</t>
+  </si>
+  <si>
     <t>选中数据库</t>
   </si>
   <si>
@@ -1545,10 +1551,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1620,6 +1626,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1627,8 +1641,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1642,14 +1657,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1658,14 +1681,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,48 +1724,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,6 +1736,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1794,78 +1800,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1878,7 +1812,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,13 +1962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,67 +1974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,6 +1985,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2006,32 +2027,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2056,11 +2056,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2087,10 +2093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2099,137 +2105,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2282,6 +2288,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -2649,7 +2661,7 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2661,16 +2673,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2686,14 +2698,14 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" s="18" customFormat="1" spans="2:3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" s="20" customFormat="1" spans="2:3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -2711,7 +2723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1"/>
+    <row r="8" s="20" customFormat="1"/>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>11</v>
@@ -2720,7 +2732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1"/>
+    <row r="10" s="20" customFormat="1"/>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>13</v>
@@ -2876,10 +2888,10 @@
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
@@ -2931,10 +2943,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
@@ -2956,7 +2968,7 @@
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2990,7 +3002,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3020,8 +3032,8 @@
   <sheetPr/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3981,7 +3993,7 @@
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:3">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B117" s="16" t="s">
@@ -3993,7 +4005,7 @@
     </row>
     <row r="118" customFormat="1" spans="1:3">
       <c r="A118" s="15"/>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="19" t="s">
         <v>277</v>
       </c>
       <c r="C118" s="16" t="s">
@@ -4002,17 +4014,21 @@
     </row>
     <row r="119" customFormat="1" spans="1:3">
       <c r="A119" s="15"/>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="19" t="s">
         <v>279</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="120" customFormat="1" spans="1:3">
-      <c r="A120" s="15"/>
+    <row r="120" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A120" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
+      <c r="C120" s="16" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="121" customFormat="1" spans="1:3">
       <c r="A121" s="15"/>
@@ -4032,224 +4048,224 @@
     </row>
     <row r="124" ht="172.8" spans="2:3">
       <c r="B124" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" ht="43.2" spans="1:3">
       <c r="A125" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" ht="57.6" spans="1:3">
       <c r="A126" s="15"/>
       <c r="B126" s="2"/>
       <c r="C126" s="16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" ht="72" spans="1:3">
       <c r="A127" s="15"/>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:3">
       <c r="A128" s="15"/>
       <c r="B128" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" ht="43.2" spans="1:3">
       <c r="A129" s="15"/>
       <c r="B129" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" ht="43.2" spans="1:3">
       <c r="A130" s="15"/>
       <c r="B130" s="2"/>
       <c r="C130" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" ht="57.6" spans="1:3">
       <c r="A131" s="15"/>
       <c r="B131" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" ht="86.4" spans="1:3">
       <c r="A132" s="15"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="15"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" ht="86.4" spans="1:3">
       <c r="A135" s="15"/>
       <c r="B135" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" ht="57.6" spans="1:3">
       <c r="A136" s="15"/>
       <c r="B136" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="15"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="15"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="15"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="15"/>
       <c r="B141" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="15"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="15"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="15"/>
       <c r="B144" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="15"/>
       <c r="B145" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="15"/>
       <c r="B146" s="16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="15"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="15"/>
       <c r="B148" s="16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C148" s="16"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="15"/>
       <c r="B149" s="16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="15"/>
       <c r="B150" s="16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4262,33 +4278,33 @@
     </row>
     <row r="153" s="6" customFormat="1" spans="1:3">
       <c r="A153" s="13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
     </row>
     <row r="154" ht="28.8" spans="2:3">
       <c r="B154" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" ht="28.8" spans="2:3">
       <c r="B155" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" ht="28.8" spans="2:3">
       <c r="B156" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="3:3">
@@ -4302,17 +4318,17 @@
     </row>
     <row r="160" s="6" customFormat="1" spans="1:3">
       <c r="A160" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
     </row>
     <row r="161" ht="43.2" spans="2:3">
       <c r="B161" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="3:3">
@@ -4320,66 +4336,66 @@
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="3:3">
@@ -4390,7 +4406,7 @@
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C173" s="16"/>
     </row>
@@ -4402,59 +4418,59 @@
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C177" s="16"/>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C179" s="16"/>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C182" s="16"/>
     </row>
@@ -4463,7 +4479,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="15" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B184" t="s">
         <v>56</v>
@@ -4473,37 +4489,37 @@
     <row r="185" spans="1:3">
       <c r="A185" s="15"/>
       <c r="B185" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="15"/>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="15"/>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="15"/>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="3:3">
@@ -4511,7 +4527,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C190" s="16"/>
     </row>
@@ -4523,86 +4539,86 @@
     </row>
     <row r="193" s="6" customFormat="1" spans="1:3">
       <c r="A193" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
     </row>
     <row r="194" ht="28.8" spans="1:3">
       <c r="A194" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B194" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C196" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" s="9" customFormat="1" spans="1:3">
       <c r="A198" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C199" s="16"/>
     </row>
     <row r="200" ht="43.2" spans="2:3">
       <c r="B200" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C201" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="203" ht="43.2" spans="2:3">
       <c r="B203" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C204" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C205" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4689,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4687,76 +4703,76 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4764,41 +4780,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4807,10 +4823,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4819,13 +4835,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4833,124 +4849,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F17" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -980,7 +980,7 @@
     <t>根据查询结果创建新表</t>
   </si>
   <si>
-    <t>create table `新表名` select other1.id role_id,other2.id router_id from role other1,router other2;</t>
+    <t>create table role_to_router select other1.id role_id,other2.id router_id from role other1,router other2;</t>
   </si>
   <si>
     <t>选中数据库</t>
@@ -1626,11 +1626,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1643,7 +1650,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1663,11 +1670,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1679,18 +1685,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1702,8 +1717,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,37 +1741,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1800,13 +1800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,37 +1818,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,7 +1860,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,13 +1890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,25 +1914,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,25 +1938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,19 +1968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,17 +1988,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,44 +2027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2071,17 +2042,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,10 +2093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2105,16 +2105,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2126,112 +2126,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="453">
   <si>
     <t>Mysql5.7.19下载与安装</t>
   </si>
@@ -719,6 +719,17 @@
     <t>now()  当前时间</t>
   </si>
   <si>
+    <t>DATE_FORMAT(原来日期，修改的日期格式)</t>
+  </si>
+  <si>
+    <t>SELECT
+            user_alias.id                                      id,
+            user_alias.username                                 username,
+            DATE_FORMAT(user_alias.create_time, '%Y.%m.%d %T') createTime,
+            DATE_FORMAT(user_alias.update_time, '%Y.%m.%d %T') updateTime
+        FROM `user` user_alias;</t>
+  </si>
+  <si>
     <t>year|month|date(key)  
 from_unixtime()     年月日</t>
   </si>
@@ -821,7 +832,19 @@
     where 表1.key = 表2.key</t>
   </si>
   <si>
-    <t>自连接：同表关联父级、一张表当两张用、表取别名: 表 表别名、列的别名</t>
+    <r>
+      <t>自连接：同表关联父级、一张表当两张用、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表别名、列别名</t>
+    </r>
   </si>
   <si>
     <t>select 表别名1.key as '列别名',表别名2.key as '别名'
@@ -1396,6 +1419,9 @@
     <t>tinyint</t>
   </si>
   <si>
+    <t>用于boolean的1或0值</t>
+  </si>
+  <si>
     <t>1个字节，等2^8</t>
   </si>
   <si>
@@ -1551,10 +1577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1627,21 +1653,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1650,7 +1661,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,9 +1690,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1709,7 +1743,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1719,14 +1752,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,13 +1768,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1800,19 +1826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,7 +1838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,13 +1856,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,13 +1928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,19 +1952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,25 +1970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,31 +1994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,30 +2015,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2023,6 +2025,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2051,17 +2068,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2071,6 +2082,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,10 +2119,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2105,137 +2131,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2290,11 +2316,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2673,16 +2702,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2698,14 +2727,14 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
-    </row>
-    <row r="5" s="20" customFormat="1" spans="2:3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" s="21" customFormat="1" spans="2:3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -2723,7 +2752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1"/>
+    <row r="8" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>11</v>
@@ -2732,7 +2761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="1"/>
+    <row r="10" s="21" customFormat="1"/>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>13</v>
@@ -2888,10 +2917,10 @@
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="25"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
@@ -2943,10 +2972,10 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
@@ -2968,7 +2997,7 @@
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3002,7 +3031,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3030,10 +3059,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3292,7 +3321,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="15"/>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C37" t="s">
@@ -3697,25 +3726,25 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" ht="28.8" spans="1:2">
+    <row r="85" ht="86.4" spans="1:3">
       <c r="A85" s="15"/>
       <c r="B85" s="16" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:3">
-      <c r="A86" s="15" t="s">
+      <c r="C85" s="16" t="s">
         <v>207</v>
       </c>
+    </row>
+    <row r="86" ht="28.8" spans="1:2">
+      <c r="A86" s="15"/>
       <c r="B86" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" customFormat="1" spans="1:3">
+      <c r="A87" s="15" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:3">
-      <c r="A87" s="15"/>
       <c r="B87" s="16" t="s">
         <v>210</v>
       </c>
@@ -3751,18 +3780,18 @@
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:3">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="C91" t="s">
         <v>219</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" customFormat="1" spans="1:3">
+      <c r="A92" s="15" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:3">
-      <c r="A92" s="15"/>
       <c r="B92" s="16" t="s">
         <v>221</v>
       </c>
@@ -3770,57 +3799,57 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" customFormat="1" ht="72" spans="1:3">
+    <row r="93" customFormat="1" spans="1:3">
       <c r="A93" s="15"/>
       <c r="B93" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A94" s="15" t="s">
+    <row r="94" customFormat="1" ht="72" spans="1:3">
+      <c r="A94" s="15"/>
+      <c r="B94" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C94" s="16" t="s">
+    </row>
+    <row r="95" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A95" s="15" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:3">
-      <c r="A95" s="15" t="s">
+      <c r="B95" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="C95" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C95" s="16"/>
     </row>
     <row r="96" customFormat="1" spans="1:3">
-      <c r="A96" s="15"/>
+      <c r="A96" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="B96" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C96" s="16" t="s">
         <v>231</v>
       </c>
+      <c r="C96" s="16"/>
     </row>
     <row r="97" customFormat="1" spans="1:3">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="15"/>
+      <c r="B97" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="C97" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C97" s="16" t="s">
+    </row>
+    <row r="98" customFormat="1" spans="1:3">
+      <c r="A98" s="15" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="98" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A98" s="15"/>
       <c r="B98" s="16" t="s">
         <v>235</v>
       </c>
@@ -3828,7 +3857,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" customFormat="1" ht="43.2" spans="1:3">
+    <row r="99" customFormat="1" ht="28.8" spans="1:3">
       <c r="A99" s="15"/>
       <c r="B99" s="16" t="s">
         <v>237</v>
@@ -3837,9 +3866,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="100" customFormat="1" ht="57.6" spans="1:3">
+    <row r="100" customFormat="1" ht="43.2" spans="1:3">
       <c r="A100" s="15"/>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="18" t="s">
         <v>239</v>
       </c>
       <c r="C100" s="16" t="s">
@@ -3855,7 +3884,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" customFormat="1" ht="28.8" spans="1:3">
+    <row r="102" customFormat="1" ht="57.6" spans="1:3">
       <c r="A102" s="15"/>
       <c r="B102" s="16" t="s">
         <v>243</v>
@@ -3866,7 +3895,7 @@
     </row>
     <row r="103" customFormat="1" ht="28.8" spans="1:3">
       <c r="A103" s="15"/>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="19" t="s">
         <v>245</v>
       </c>
       <c r="C103" s="16" t="s">
@@ -3875,49 +3904,49 @@
     </row>
     <row r="104" customFormat="1" ht="28.8" spans="1:3">
       <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
+      <c r="B104" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="C104" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="28.8" spans="1:3">
       <c r="A105" s="15"/>
-      <c r="B105" s="16" t="s">
-        <v>248</v>
-      </c>
+      <c r="B105" s="16"/>
       <c r="C105" s="16" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="28.8" spans="1:3">
       <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="16" t="s">
+        <v>250</v>
+      </c>
       <c r="C106" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="28.8" spans="1:3">
       <c r="A107" s="15"/>
-      <c r="B107" s="16" t="s">
-        <v>251</v>
-      </c>
+      <c r="B107" s="16"/>
       <c r="C107" s="16" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="15"/>
+      <c r="B108" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="C108" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C108" s="16" t="s">
+    </row>
+    <row r="109" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A109" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="109" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A109" s="15"/>
       <c r="B109" s="16" t="s">
         <v>256</v>
       </c>
@@ -3925,19 +3954,19 @@
         <v>257</v>
       </c>
     </row>
-    <row r="110" customFormat="1" spans="1:3">
-      <c r="A110" s="15" t="s">
+    <row r="110" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A110" s="15"/>
+      <c r="B110" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="C110" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C110" s="16" t="s">
+    </row>
+    <row r="111" customFormat="1" spans="1:3">
+      <c r="A111" s="15" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="111" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A111" s="15"/>
       <c r="B111" s="16" t="s">
         <v>261</v>
       </c>
@@ -3945,7 +3974,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="112" customFormat="1" spans="1:3">
+    <row r="112" customFormat="1" ht="28.8" spans="1:3">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
         <v>263</v>
@@ -3954,7 +3983,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="113" customFormat="1" ht="28.8" spans="1:3">
+    <row r="113" customFormat="1" spans="1:3">
       <c r="A113" s="15"/>
       <c r="B113" s="16" t="s">
         <v>265</v>
@@ -3963,7 +3992,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="114" customFormat="1" spans="1:3">
+    <row r="114" customFormat="1" ht="28.8" spans="1:3">
       <c r="A114" s="15"/>
       <c r="B114" s="16" t="s">
         <v>267</v>
@@ -3972,19 +4001,19 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A115" s="15" t="s">
+    <row r="115" customFormat="1" spans="1:3">
+      <c r="A115" s="15"/>
+      <c r="B115" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="C115" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C115" s="16" t="s">
+    </row>
+    <row r="116" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A116" s="15" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="116" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A116" s="15"/>
       <c r="B116" s="16" t="s">
         <v>272</v>
       </c>
@@ -3992,20 +4021,20 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" customFormat="1" spans="1:3">
-      <c r="A117" s="18" t="s">
+    <row r="117" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A117" s="15"/>
+      <c r="B117" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="C117" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C117" s="16" t="s">
+    </row>
+    <row r="118" customFormat="1" spans="1:3">
+      <c r="A118" s="20" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:3">
-      <c r="A118" s="15"/>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="16" t="s">
         <v>277</v>
       </c>
       <c r="C118" s="16" t="s">
@@ -4021,67 +4050,67 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A120" s="15" t="s">
+    <row r="120" customFormat="1" spans="1:3">
+      <c r="A120" s="15"/>
+      <c r="B120" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="B120" s="16"/>
       <c r="C120" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="121" customFormat="1" spans="1:3">
-      <c r="A121" s="15"/>
+    <row r="121" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A121" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-    </row>
-    <row r="122" customFormat="1" spans="1:2">
+      <c r="C121" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:3">
       <c r="A122" s="15"/>
       <c r="B122" s="16"/>
-    </row>
-    <row r="123" s="6" customFormat="1" spans="1:3">
-      <c r="A123" s="13" t="s">
+      <c r="C122" s="16"/>
+    </row>
+    <row r="123" customFormat="1" spans="1:2">
+      <c r="A123" s="15"/>
+      <c r="B123" s="16"/>
+    </row>
+    <row r="124" s="6" customFormat="1" spans="1:3">
+      <c r="A124" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-    </row>
-    <row r="124" ht="172.8" spans="2:3">
-      <c r="B124" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="125" ht="43.2" spans="1:3">
-      <c r="A125" s="15" t="s">
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125" ht="172.8" spans="2:3">
+      <c r="B125" t="s">
         <v>285</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C125" s="16" t="s">
+    </row>
+    <row r="126" ht="43.2" spans="1:3">
+      <c r="A126" s="15" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="126" ht="57.6" spans="1:3">
-      <c r="A126" s="15"/>
-      <c r="B126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="C126" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="127" ht="72" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" ht="57.6" spans="1:3">
       <c r="A127" s="15"/>
-      <c r="B127" t="s">
-        <v>289</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="128" ht="57.6" spans="1:3">
+    <row r="128" ht="72" spans="1:3">
       <c r="A128" s="15"/>
       <c r="B128" t="s">
         <v>291</v>
@@ -4090,9 +4119,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="129" ht="43.2" spans="1:3">
+    <row r="129" ht="57.6" spans="1:3">
       <c r="A129" s="15"/>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
         <v>293</v>
       </c>
       <c r="C129" s="16" t="s">
@@ -4101,51 +4130,51 @@
     </row>
     <row r="130" ht="43.2" spans="1:3">
       <c r="A130" s="15"/>
-      <c r="B130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="C130" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="131" ht="57.6" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" ht="43.2" spans="1:3">
       <c r="A131" s="15"/>
-      <c r="B131" s="16" t="s">
-        <v>296</v>
-      </c>
+      <c r="B131" s="2"/>
       <c r="C131" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="132" ht="86.4" spans="1:3">
+    <row r="132" ht="57.6" spans="1:3">
       <c r="A132" s="15"/>
-      <c r="B132" s="16"/>
+      <c r="B132" s="16" t="s">
+        <v>298</v>
+      </c>
       <c r="C132" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" ht="86.4" spans="1:3">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="15"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="135" ht="86.4" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="15"/>
-      <c r="B135" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="B135" s="16"/>
       <c r="C135" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="136" ht="57.6" spans="1:3">
+    <row r="136" ht="86.4" spans="1:3">
       <c r="A136" s="15"/>
       <c r="B136" s="16" t="s">
         <v>303</v>
@@ -4154,66 +4183,66 @@
         <v>304</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" ht="57.6" spans="1:3">
       <c r="A137" s="15"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="16" t="s">
+        <v>305</v>
+      </c>
       <c r="C137" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="15"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="B139" s="16" t="s">
+      <c r="A139" s="15"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C139" s="16" t="s">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="15" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="15"/>
-      <c r="B140" s="16"/>
+      <c r="B140" s="16" t="s">
+        <v>310</v>
+      </c>
       <c r="C140" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="15"/>
-      <c r="B141" s="16" t="s">
-        <v>311</v>
-      </c>
+      <c r="B141" s="16"/>
       <c r="C141" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="15"/>
-      <c r="B142" s="16"/>
+      <c r="B142" s="16" t="s">
+        <v>313</v>
+      </c>
       <c r="C142" s="16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="15"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="15"/>
-      <c r="B144" s="16" t="s">
-        <v>315</v>
-      </c>
+      <c r="B144" s="16"/>
       <c r="C144" s="16" t="s">
         <v>316</v>
       </c>
@@ -4233,31 +4262,31 @@
         <v>319</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="15"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="16" t="s">
+        <v>321</v>
+      </c>
       <c r="C147" s="16" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="15"/>
-      <c r="B148" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="15"/>
       <c r="B149" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C149" s="16" t="s">
         <v>323</v>
       </c>
+      <c r="C149" s="16"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="15"/>
@@ -4270,26 +4299,27 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="15"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-    </row>
-    <row r="152" spans="3:3">
+      <c r="B151" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="15"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="16"/>
     </row>
-    <row r="153" s="6" customFormat="1" spans="1:3">
-      <c r="A153" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-    </row>
-    <row r="154" ht="28.8" spans="2:3">
-      <c r="B154" t="s">
-        <v>327</v>
-      </c>
-      <c r="C154" s="16" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" s="16"/>
+    </row>
+    <row r="154" s="6" customFormat="1" spans="1:3">
+      <c r="A154" s="13" t="s">
         <v>328</v>
       </c>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" ht="28.8" spans="2:3">
       <c r="B155" t="s">
@@ -4307,8 +4337,13 @@
         <v>332</v>
       </c>
     </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="16"/>
+    <row r="157" ht="28.8" spans="2:3">
+      <c r="B157" t="s">
+        <v>333</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" s="16"/>
@@ -4316,31 +4351,26 @@
     <row r="159" spans="3:3">
       <c r="C159" s="16"/>
     </row>
-    <row r="160" s="6" customFormat="1" spans="1:3">
-      <c r="A160" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-    </row>
-    <row r="161" ht="43.2" spans="2:3">
-      <c r="B161" t="s">
-        <v>334</v>
-      </c>
-      <c r="C161" s="16" t="s">
+    <row r="160" spans="3:3">
+      <c r="C160" s="16"/>
+    </row>
+    <row r="161" s="6" customFormat="1" spans="1:3">
+      <c r="A161" s="13" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="162" spans="3:3">
-      <c r="C162" s="16"/>
-    </row>
-    <row r="163" spans="2:3">
-      <c r="B163" t="s">
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+    </row>
+    <row r="162" ht="43.2" spans="2:3">
+      <c r="B162" t="s">
         <v>336</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C162" s="16" t="s">
         <v>337</v>
       </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="16"/>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
@@ -4398,31 +4428,31 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="3:3">
-      <c r="C171" s="16"/>
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
+        <v>352</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="172" spans="3:3">
       <c r="C172" s="16"/>
     </row>
-    <row r="173" spans="2:3">
-      <c r="B173" t="s">
-        <v>352</v>
-      </c>
+    <row r="173" spans="3:3">
       <c r="C173" s="16"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="C174" s="16"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>353</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>354</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C175" s="16"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
@@ -4436,29 +4466,29 @@
       <c r="B177" t="s">
         <v>357</v>
       </c>
-      <c r="C177" s="16"/>
+      <c r="C177" s="16" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>355</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>358</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C178" s="16"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
         <v>357</v>
       </c>
-      <c r="C179" s="16"/>
+      <c r="C179" s="16" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
         <v>359</v>
       </c>
-      <c r="C180" s="16" t="s">
-        <v>360</v>
-      </c>
+      <c r="C180" s="16"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
@@ -4472,28 +4502,27 @@
       <c r="B182" t="s">
         <v>363</v>
       </c>
-      <c r="C182" s="16"/>
-    </row>
-    <row r="183" spans="3:3">
+      <c r="C182" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B184" t="s">
+    <row r="184" spans="3:3">
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" t="s">
         <v>56</v>
       </c>
-      <c r="C184" s="16"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="15"/>
-      <c r="B185" t="s">
-        <v>365</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>366</v>
-      </c>
+      <c r="C185" s="16"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="15"/>
@@ -4522,94 +4551,95 @@
         <v>372</v>
       </c>
     </row>
-    <row r="189" spans="3:3">
-      <c r="C189" s="16"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="10" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" s="15"/>
+      <c r="B189" t="s">
         <v>373</v>
       </c>
+      <c r="C189" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="3:3">
+    <row r="191" spans="1:3">
+      <c r="A191" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="C191" s="16"/>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" s="6" customFormat="1" spans="1:3">
-      <c r="A193" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B193" s="13"/>
-      <c r="C193" s="13"/>
-    </row>
-    <row r="194" ht="28.8" spans="1:3">
-      <c r="A194" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B194" t="s">
-        <v>283</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="10" t="s">
+    <row r="193" spans="3:3">
+      <c r="C193" s="16"/>
+    </row>
+    <row r="194" s="6" customFormat="1" spans="1:3">
+      <c r="A194" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+    </row>
+    <row r="195" ht="28.8" spans="1:3">
+      <c r="A195" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B195" t="s">
+        <v>285</v>
+      </c>
+      <c r="C195" s="16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="198" s="9" customFormat="1" spans="1:3">
-      <c r="A198" s="13" t="s">
+    <row r="197" spans="1:3">
+      <c r="A197" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-    </row>
-    <row r="199" spans="2:3">
-      <c r="B199" t="s">
+      <c r="C197" t="s">
         <v>379</v>
       </c>
-      <c r="C199" s="16"/>
-    </row>
-    <row r="200" ht="43.2" spans="2:3">
+    </row>
+    <row r="199" s="9" customFormat="1" spans="1:3">
+      <c r="A199" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+    </row>
+    <row r="200" spans="2:3">
       <c r="B200" t="s">
-        <v>380</v>
-      </c>
-      <c r="C200" s="16" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="201" spans="2:3">
+      <c r="C200" s="16"/>
+    </row>
+    <row r="201" ht="43.2" spans="2:3">
       <c r="B201" t="s">
         <v>382</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="2:3">
+      <c r="B202" t="s">
+        <v>384</v>
+      </c>
       <c r="C202" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="203" ht="43.2" spans="2:3">
-      <c r="B203" t="s">
         <v>385</v>
       </c>
-      <c r="C203" s="16" t="s">
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
+    <row r="204" ht="43.2" spans="2:3">
       <c r="B204" t="s">
         <v>387</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="16" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4619,6 +4649,14 @@
       </c>
       <c r="C205" t="s">
         <v>390</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" t="s">
+        <v>391</v>
+      </c>
+      <c r="C206" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4629,35 +4667,35 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A199:C199"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A55:A65"/>
     <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A76:A84"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A97:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A125:A138"/>
-    <mergeCell ref="A139:A150"/>
-    <mergeCell ref="A184:A188"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A98:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A126:A139"/>
+    <mergeCell ref="A140:A151"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B147:B148"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.runoob.com/mysql/mysql-insert-query.html"/>
@@ -4674,7 +4712,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4689,7 +4727,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4703,76 +4741,79 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4780,41 +4821,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4823,10 +4864,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4835,13 +4876,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4849,124 +4890,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H13" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F15" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F16" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" t="s">
         <v>438</v>
-      </c>
-      <c r="F17" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D18" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4988,14 +5029,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="3" hidden="1" outlineLevel="1"/>
+    <row r="4" collapsed="1"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="455">
   <si>
     <t>Mysql5.7.19下载与安装</t>
   </si>
@@ -833,6 +833,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>自连接：同表关联父级、一张表当两张用、</t>
     </r>
     <r>
@@ -1270,6 +1277,13 @@
     <t>ALTER TABLE `表名` CHANGE `旧字段名` `新字段名` VARCHAR(77);</t>
   </si>
   <si>
+    <t>已有表,如需在 "City" 列创建或撤销 DEFAULT 约束</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `表名` ALTER `字段名` SET DEFAULT '6'
+ALTER TABLE `表名` ALTER `字段名` DROP DEFAULT</t>
+  </si>
+  <si>
     <t>事务的理解：dml语句操作(update, insert, delete)要么全部成功，要么全部失败</t>
   </si>
   <si>
@@ -1577,10 +1591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1653,15 +1667,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,16 +1695,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1719,14 +1746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1736,15 +1755,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1758,10 +1770,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1773,8 +1786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1826,7 +1840,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,7 +1960,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,85 +1990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,67 +2008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,21 +2043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2062,8 +2061,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2072,16 +2071,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2103,6 +2108,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2119,10 +2133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2131,16 +2145,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2152,16 +2166,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2170,94 +2178,100 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3061,8 +3075,8 @@
   <sheetPr/>
   <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -4436,15 +4450,20 @@
         <v>353</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
-      <c r="C172" s="16"/>
+    <row r="172" ht="28.8" spans="2:3">
+      <c r="B172" t="s">
+        <v>354</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" s="16"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C174" s="16"/>
     </row>
@@ -4456,59 +4475,59 @@
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C178" s="16"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C180" s="16"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C183" s="16"/>
     </row>
@@ -4517,7 +4536,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B185" t="s">
         <v>56</v>
@@ -4527,37 +4546,37 @@
     <row r="186" spans="1:3">
       <c r="A186" s="15"/>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="15"/>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="15"/>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="15"/>
       <c r="B189" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="3:3">
@@ -4565,7 +4584,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C191" s="16"/>
     </row>
@@ -4577,86 +4596,86 @@
     </row>
     <row r="194" s="6" customFormat="1" spans="1:3">
       <c r="A194" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
     </row>
     <row r="195" ht="28.8" spans="1:3">
       <c r="A195" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B195" t="s">
         <v>285</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C197" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" s="9" customFormat="1" spans="1:3">
       <c r="A199" s="13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C200" s="16"/>
     </row>
     <row r="201" ht="43.2" spans="2:3">
       <c r="B201" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C202" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="203" spans="3:3">
       <c r="C203" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" ht="43.2" spans="2:3">
       <c r="B204" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C205" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C206" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4727,7 +4746,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4741,79 +4760,79 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4821,41 +4840,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4864,10 +4883,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4876,13 +4895,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4890,124 +4909,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="457">
   <si>
     <t>Mysql5.7.19下载与安装</t>
   </si>
@@ -719,7 +719,7 @@
     <t>now()  当前时间</t>
   </si>
   <si>
-    <t>DATE_FORMAT(原来日期，修改的日期格式)</t>
+    <t>date_format(原来日期，修改的日期格式)</t>
   </si>
   <si>
     <t>SELECT
@@ -782,8 +782,8 @@
     <t>select ifnull('','上海') from 表名</t>
   </si>
   <si>
-    <t>when expr1 then expr2：
-expr1为true，返回expr2;expr1为false,往下执行，如此类推</t>
+    <t>when expr then a：
+expr为true，返回a; expr1为false,往下执行，如此类推</t>
   </si>
   <si>
     <t>select key,(select case
@@ -859,8 +859,27 @@
     where 表别名1.key = 表别名2.key</t>
   </si>
   <si>
-    <t>单行子查询：select语句当做key
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单行子查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：select语句当做key
     小明同班所有学生，关联同编号</t>
+    </r>
   </si>
   <si>
     <t>select * from 表名
@@ -1204,7 +1223,7 @@
     values('value1', 'value2', 'valueN');</t>
   </si>
   <si>
-    <t>添加多条</t>
+    <t>批量添加</t>
   </si>
   <si>
     <t>insert into 表名 (key1, key2, keyN)
@@ -1355,6 +1374,12 @@
   <si>
     <t>delete from 表名
     where key = 'value';</t>
+  </si>
+  <si>
+    <t>批量删除</t>
+  </si>
+  <si>
+    <t>delete from `student` where id in(3,5,6,8);</t>
   </si>
   <si>
     <t>删除表</t>
@@ -1591,10 +1616,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1667,21 +1692,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1689,28 +1699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,6 +1707,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,27 +1742,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1780,7 +1768,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1789,6 +1777,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1840,7 +1865,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,13 +1901,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,139 +2027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,7 +2039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,8 +2086,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2071,7 +2096,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,26 +2131,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2133,28 +2158,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2166,112 +2191,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3075,8 +3100,8 @@
   <sheetPr/>
   <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3891,7 +3916,7 @@
     </row>
     <row r="101" customFormat="1" ht="57.6" spans="1:3">
       <c r="A101" s="15"/>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="19" t="s">
         <v>241</v>
       </c>
       <c r="C101" s="16" t="s">
@@ -4074,7 +4099,7 @@
       </c>
     </row>
     <row r="121" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="20" t="s">
         <v>283</v>
       </c>
       <c r="B121" s="16"/>
@@ -4344,7 +4369,7 @@
       </c>
     </row>
     <row r="156" ht="28.8" spans="2:3">
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C156" s="16" t="s">
@@ -4612,70 +4637,78 @@
         <v>379</v>
       </c>
     </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C196" t="s">
+        <v>381</v>
+      </c>
+    </row>
     <row r="197" spans="1:3">
       <c r="A197" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C197" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" s="9" customFormat="1" spans="1:3">
       <c r="A199" s="13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C200" s="16"/>
     </row>
     <row r="201" ht="43.2" spans="2:3">
       <c r="B201" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C202" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="203" spans="3:3">
       <c r="C203" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" ht="43.2" spans="2:3">
       <c r="B204" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C205" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C206" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4746,7 +4779,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4760,79 +4793,79 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4840,41 +4873,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4883,10 +4916,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4895,13 +4928,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4909,124 +4942,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F14" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F17" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D21" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D22" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="460">
   <si>
     <t>Mysql5.7.19下载与安装</t>
   </si>
@@ -127,7 +127,8 @@
     <t>mysqld -install</t>
   </si>
   <si>
-    <t>报错：应用程序无法正常启动（0xc000007b）--- https://blog.csdn.net/zztingfeng/article/details/80155624</t>
+    <t>报错：应用程序无法正常启动（0xc000007b）--- https://blog.csdn.net/zztingfeng/article/details/80155624
+报错找不到文件，noFile里备有。复制到位置：C:\Windows\SysWOW64</t>
   </si>
   <si>
     <t>查看服务，打开服务管理器---不想看就算了</t>
@@ -306,7 +307,7 @@
     <t>mysql菜鸟教学</t>
   </si>
   <si>
-    <t>https://www.runoob.com/mysql/mysql-insert-query.html</t>
+    <t>https://www.runoob.com/sql/sql-tutorial.html</t>
   </si>
   <si>
     <t>SQL语句</t>
@@ -385,6 +386,12 @@
   </si>
   <si>
     <t>create database 数据库名 character set utf8 collate utf8_bin;</t>
+  </si>
+  <si>
+    <t>指向数据库</t>
+  </si>
+  <si>
+    <t>USE `数据库名`;</t>
   </si>
   <si>
     <t>删除数据库</t>
@@ -585,13 +592,20 @@
     <t>select min(key),min(key) from 表名</t>
   </si>
   <si>
-    <t>group by分组</t>
+    <t>group by分组，可去重</t>
   </si>
   <si>
     <t>计算总数，平均数并分组</t>
   </si>
   <si>
     <t>select key,count(*),avg(key) from 表名 group by key</t>
+  </si>
+  <si>
+    <t>解决MySQL5.7版本之后使用GROUP BY语句时报错
+https://blog.csdn.net/weixin_41948075/article/details/123656114
+select @@global.sql_mode
+set @@global.sql_mode ='STRICT_TRANS_TABLES,NO_ZERO_IN_DATE,NO_ZERO_DATE,ERROR_FOR_DIVISION_BY_ZERO,NO_ENGINE_SUBSTITUTION'
+重启</t>
   </si>
   <si>
     <t>having过滤</t>
@@ -796,7 +810,8 @@
     <t>分页查询</t>
   </si>
   <si>
-    <t>limit 第几条开始, 每页条数      放最后</t>
+    <t>limit 第几条开始, 每页条数      放最后
+缺陷：还得查询总行数，再计算总页数</t>
   </si>
   <si>
     <t>select * from 表名
@@ -1014,7 +1029,7 @@
     <t>select key,key from 表1,表2 where 表1.key = 表2.key order by key</t>
   </si>
   <si>
-    <t>左外连接：左表完全显示</t>
+    <t>左外连接：左表完全显示。--- 关系表id重复会条数加多</t>
   </si>
   <si>
     <t>select key,key from 表1 left join 表2 on 表1.key = 表2.key</t>
@@ -2300,7 +2315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,15 +2370,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2375,6 +2390,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2729,8 +2747,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2834,9 +2852,9 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="2"/>
-      <c r="B15" t="s">
+      <c r="B15" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="12"/>
@@ -2956,10 +2974,10 @@
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
@@ -3098,10 +3116,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3250,7 +3268,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3">
+      <c r="A23" s="15"/>
       <c r="B23" t="s">
         <v>97</v>
       </c>
@@ -3274,19 +3293,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="2:3">
-      <c r="B27" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" ht="28.8" spans="2:3">
       <c r="B28" t="s">
         <v>105</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3306,23 +3325,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:3">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+      <c r="C31" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="16" t="s">
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:3">
+      <c r="A32" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" ht="28.8" spans="1:3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
         <v>114</v>
@@ -3331,7 +3349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="28.8" spans="1:3">
       <c r="A34" s="15"/>
       <c r="B34" s="16" t="s">
         <v>116</v>
@@ -3342,7 +3360,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="15"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -3360,35 +3378,35 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="15"/>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="15"/>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" t="s">
         <v>126</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="15"/>
       <c r="B40" t="s">
         <v>129</v>
       </c>
@@ -3405,18 +3423,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" ht="28.8" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="15"/>
-      <c r="B42" s="16" t="s">
+      <c r="B42" t="s">
         <v>133</v>
       </c>
       <c r="C42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" ht="28.8" spans="1:3">
       <c r="A43" s="15"/>
-      <c r="B43" t="s">
+      <c r="B43" s="16" t="s">
         <v>135</v>
       </c>
       <c r="C43" t="s">
@@ -3424,18 +3442,18 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" t="s">
         <v>137</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="15"/>
       <c r="B45" t="s">
         <v>140</v>
       </c>
@@ -3453,129 +3471,126 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" t="s">
         <v>144</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
         <v>147</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
         <v>150</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>151</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
         <v>153</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>154</v>
-      </c>
-      <c r="C50" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
         <v>156</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>157</v>
-      </c>
-      <c r="C51" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
         <v>159</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>160</v>
-      </c>
-      <c r="C52" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>163</v>
-      </c>
-      <c r="C53" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
         <v>165</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>166</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" ht="100.8" spans="1:2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="17" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>169</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="15"/>
-      <c r="B56" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="15"/>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>173</v>
-      </c>
-      <c r="C57" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="15"/>
       <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
         <v>175</v>
-      </c>
-      <c r="C58" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3584,160 +3599,163 @@
         <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="15"/>
       <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
         <v>177</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="15"/>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="15"/>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="15"/>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="15"/>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="15"/>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="17" t="s">
-        <v>183</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="15"/>
       <c r="B66" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="15"/>
       <c r="B67" t="s">
         <v>185</v>
       </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="15"/>
+      <c r="A68" s="17" t="s">
+        <v>186</v>
+      </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="15"/>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="15"/>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="15"/>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="15"/>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="15"/>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="15"/>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="15"/>
       <c r="B75" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="15" t="s">
         <v>194</v>
       </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="15"/>
       <c r="B76" t="s">
         <v>195</v>
-      </c>
-      <c r="C76" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="15"/>
       <c r="B77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="15" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="15"/>
       <c r="B78" t="s">
         <v>198</v>
+      </c>
+      <c r="C78" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="15"/>
       <c r="B79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="15"/>
       <c r="B80" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3747,212 +3765,211 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" s="15"/>
       <c r="B82" t="s">
         <v>203</v>
       </c>
+      <c r="C82" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="15"/>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="15"/>
       <c r="B84" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" ht="86.4" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="15"/>
-      <c r="B85" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="16" t="s">
+      <c r="B85" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="86" ht="28.8" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="15"/>
-      <c r="B86" s="16" t="s">
+      <c r="B86" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="1:3">
-      <c r="A87" s="15" t="s">
+    <row r="87" ht="86.4" spans="1:3">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C87" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:3">
+    </row>
+    <row r="88" ht="28.8" spans="1:2">
       <c r="A88" s="15"/>
       <c r="B88" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:3">
+      <c r="A89" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B89" s="16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:3">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16" t="s">
+      <c r="C89" t="s">
         <v>214</v>
-      </c>
-      <c r="C89" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:3">
       <c r="A90" s="15"/>
       <c r="B90" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" t="s">
         <v>216</v>
-      </c>
-      <c r="C90" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:3">
       <c r="A91" s="15"/>
       <c r="B91" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" t="s">
         <v>218</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" customFormat="1" spans="1:3">
+      <c r="A92" s="15"/>
+      <c r="B92" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:3">
-      <c r="A92" s="15" t="s">
+      <c r="C92" t="s">
         <v>220</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
       <c r="A93" s="15"/>
       <c r="B93" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:3">
+      <c r="A94" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B94" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="94" customFormat="1" ht="72" spans="1:3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16" t="s">
+      <c r="C94" t="s">
         <v>225</v>
       </c>
-      <c r="C94" s="16" t="s">
+    </row>
+    <row r="95" customFormat="1" spans="1:3">
+      <c r="A95" s="15"/>
+      <c r="B95" s="16" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="95" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A95" s="15" t="s">
+      <c r="C95" t="s">
         <v>227</v>
       </c>
-      <c r="B95" s="16" t="s">
+    </row>
+    <row r="96" customFormat="1" ht="72" spans="1:3">
+      <c r="A96" s="15"/>
+      <c r="B96" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C96" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="96" customFormat="1" spans="1:3">
-      <c r="A96" s="15" t="s">
+    <row r="97" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A97" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B97" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C96" s="16"/>
-    </row>
-    <row r="97" customFormat="1" spans="1:3">
-      <c r="A97" s="15"/>
-      <c r="B97" s="16" t="s">
+      <c r="C97" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C97" s="16" t="s">
+    </row>
+    <row r="98" customFormat="1" spans="1:3">
+      <c r="A98" s="19" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:3">
-      <c r="A98" s="15" t="s">
+      <c r="B98" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B98" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" ht="28.8" spans="1:3">
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" customFormat="1" spans="1:3">
       <c r="A99" s="15"/>
       <c r="B99" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:3">
+      <c r="A100" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="B100" s="16" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="100" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A100" s="15"/>
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C100" s="16" t="s">
+    </row>
+    <row r="101" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="16" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="101" customFormat="1" ht="57.6" spans="1:3">
-      <c r="A101" s="15"/>
-      <c r="B101" s="19" t="s">
+      <c r="C101" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C101" s="16" t="s">
+    </row>
+    <row r="102" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A102" s="15"/>
+      <c r="B102" s="20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="102" customFormat="1" ht="57.6" spans="1:3">
-      <c r="A102" s="15"/>
-      <c r="B102" s="16" t="s">
+      <c r="C102" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C102" s="16" t="s">
+    </row>
+    <row r="103" customFormat="1" ht="57.6" spans="1:3">
+      <c r="A103" s="15"/>
+      <c r="B103" s="18" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="103" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A103" s="15"/>
-      <c r="B103" s="19" t="s">
+      <c r="C103" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C103" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" ht="28.8" spans="1:3">
+    </row>
+    <row r="104" customFormat="1" ht="57.6" spans="1:3">
       <c r="A104" s="15"/>
       <c r="B104" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="28.8" spans="1:3">
       <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
+      <c r="B105" s="18" t="s">
+        <v>248</v>
+      </c>
       <c r="C105" s="16" t="s">
         <v>249</v>
       </c>
@@ -3983,175 +4000,175 @@
       </c>
     </row>
     <row r="109" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="15"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="110" customFormat="1" ht="28.8" spans="1:3">
       <c r="A110" s="15"/>
       <c r="B110" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A111" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="B111" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:3">
-      <c r="A111" s="15" t="s">
+      <c r="C111" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="28.8" spans="1:3">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:3">
+      <c r="A113" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="B113" s="16" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:3">
-      <c r="A113" s="15"/>
-      <c r="B113" s="16" t="s">
+      <c r="C113" s="16" t="s">
         <v>265</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="28.8" spans="1:3">
       <c r="A114" s="15"/>
       <c r="B114" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:3">
       <c r="A115" s="15"/>
       <c r="B115" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C115" s="16" t="s">
+    </row>
+    <row r="116" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A116" s="15"/>
+      <c r="B116" s="16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="116" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A116" s="15" t="s">
+      <c r="C116" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B116" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" ht="43.2" spans="1:3">
+    </row>
+    <row r="117" customFormat="1" spans="1:3">
       <c r="A117" s="15"/>
       <c r="B117" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A118" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="B118" s="16" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:3">
-      <c r="A118" s="20" t="s">
+      <c r="C118" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B118" s="16" t="s">
+    </row>
+    <row r="119" customFormat="1" ht="43.2" spans="1:3">
+      <c r="A119" s="15"/>
+      <c r="B119" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C119" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="119" customFormat="1" spans="1:3">
-      <c r="A119" s="15"/>
-      <c r="B119" s="19" t="s">
+    <row r="120" customFormat="1" spans="1:3">
+      <c r="A120" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="B120" s="16" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:3">
-      <c r="A120" s="15"/>
-      <c r="B120" s="19" t="s">
+      <c r="C120" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C120" s="16" t="s">
+    </row>
+    <row r="121" customFormat="1" spans="1:3">
+      <c r="A121" s="15"/>
+      <c r="B121" s="18" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="121" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A121" s="20" t="s">
+      <c r="C121" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:3">
       <c r="A122" s="15"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-    </row>
-    <row r="123" customFormat="1" spans="1:2">
-      <c r="A123" s="15"/>
+      <c r="B122" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A123" s="19" t="s">
+        <v>286</v>
+      </c>
       <c r="B123" s="16"/>
-    </row>
-    <row r="124" s="6" customFormat="1" spans="1:3">
-      <c r="A124" s="13" t="s">
+      <c r="C123" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:3">
+      <c r="A124" s="15"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+    </row>
+    <row r="125" customFormat="1" spans="1:2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="16"/>
+    </row>
+    <row r="126" s="6" customFormat="1" spans="1:3">
+      <c r="A126" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-    </row>
-    <row r="125" ht="172.8" spans="2:3">
-      <c r="B125" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="126" ht="43.2" spans="1:3">
-      <c r="A126" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+    </row>
+    <row r="127" ht="172.8" spans="2:3">
+      <c r="B127" t="s">
         <v>288</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C127" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="127" ht="57.6" spans="1:3">
-      <c r="A127" s="15"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="16" t="s">
+    <row r="128" ht="43.2" spans="1:3">
+      <c r="A128" s="15" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="128" ht="72" spans="1:3">
-      <c r="A128" s="15"/>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>291</v>
       </c>
       <c r="C128" s="16" t="s">
@@ -4160,111 +4177,111 @@
     </row>
     <row r="129" ht="57.6" spans="1:3">
       <c r="A129" s="15"/>
-      <c r="B129" t="s">
+      <c r="B129" s="2"/>
+      <c r="C129" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C129" s="16" t="s">
+    </row>
+    <row r="130" ht="72" spans="1:3">
+      <c r="A130" s="15"/>
+      <c r="B130" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="130" ht="43.2" spans="1:3">
-      <c r="A130" s="15"/>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C130" s="16" t="s">
+    </row>
+    <row r="131" ht="57.6" spans="1:3">
+      <c r="A131" s="15"/>
+      <c r="B131" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="131" ht="43.2" spans="1:3">
-      <c r="A131" s="15"/>
-      <c r="B131" s="2"/>
       <c r="C131" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="132" ht="57.6" spans="1:3">
+    <row r="132" ht="43.2" spans="1:3">
       <c r="A132" s="15"/>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="133" ht="86.4" spans="1:3">
+    <row r="133" ht="43.2" spans="1:3">
       <c r="A133" s="15"/>
-      <c r="B133" s="16"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" ht="57.6" spans="1:3">
       <c r="A134" s="15"/>
-      <c r="B134" s="16"/>
+      <c r="B134" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="C134" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135" ht="86.4" spans="1:3">
       <c r="A135" s="15"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="136" ht="86.4" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="15"/>
-      <c r="B136" s="16" t="s">
-        <v>303</v>
-      </c>
+      <c r="B136" s="16"/>
       <c r="C136" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="137" ht="57.6" spans="1:3">
+    <row r="137" spans="1:3">
       <c r="A137" s="15"/>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="16"/>
+      <c r="C137" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C137" s="16" t="s">
+    </row>
+    <row r="138" ht="86.4" spans="1:3">
+      <c r="A138" s="15"/>
+      <c r="B138" s="16" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="15"/>
-      <c r="B138" s="16"/>
       <c r="C138" s="16" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" ht="57.6" spans="1:3">
       <c r="A139" s="15"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="16" t="s">
+        <v>308</v>
+      </c>
       <c r="C139" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B140" s="16" t="s">
+      <c r="A140" s="15"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="15"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="15" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="15"/>
       <c r="B142" s="16" t="s">
         <v>313</v>
       </c>
@@ -4281,57 +4298,57 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="15"/>
-      <c r="B144" s="16"/>
+      <c r="B144" s="16" t="s">
+        <v>316</v>
+      </c>
       <c r="C144" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="15"/>
-      <c r="B145" s="16" t="s">
-        <v>317</v>
-      </c>
+      <c r="B145" s="16"/>
       <c r="C145" s="16" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="15"/>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="16"/>
+      <c r="C146" s="16" t="s">
         <v>319</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="15"/>
       <c r="B147" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C147" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="15"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="C148" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="15"/>
       <c r="B149" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C149" s="16"/>
+        <v>324</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="15"/>
-      <c r="B150" s="16" t="s">
-        <v>324</v>
-      </c>
+      <c r="B150" s="16"/>
       <c r="C150" s="16" t="s">
         <v>325</v>
       </c>
@@ -4341,416 +4358,433 @@
       <c r="B151" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C151" s="16" t="s">
-        <v>327</v>
-      </c>
+      <c r="C151" s="16"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="15"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-    </row>
-    <row r="153" spans="3:3">
-      <c r="C153" s="16"/>
-    </row>
-    <row r="154" s="6" customFormat="1" spans="1:3">
-      <c r="A154" s="13" t="s">
+      <c r="B152" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-    </row>
-    <row r="155" ht="28.8" spans="2:3">
-      <c r="B155" t="s">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="15"/>
+      <c r="B153" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C153" s="16" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="156" ht="28.8" spans="2:3">
-      <c r="B156" s="3" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="15"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="16"/>
+    </row>
+    <row r="156" s="6" customFormat="1" spans="1:3">
+      <c r="A156" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>332</v>
-      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
     </row>
     <row r="157" ht="28.8" spans="2:3">
       <c r="B157" t="s">
+        <v>332</v>
+      </c>
+      <c r="C157" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C157" s="16" t="s">
+    </row>
+    <row r="158" ht="28.8" spans="2:3">
+      <c r="B158" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="158" spans="3:3">
-      <c r="C158" s="16"/>
-    </row>
-    <row r="159" spans="3:3">
-      <c r="C159" s="16"/>
+      <c r="C158" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" ht="28.8" spans="2:3">
+      <c r="B159" t="s">
+        <v>336</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" s="16"/>
     </row>
-    <row r="161" s="6" customFormat="1" spans="1:3">
-      <c r="A161" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-    </row>
-    <row r="162" ht="43.2" spans="2:3">
-      <c r="B162" t="s">
-        <v>336</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3">
-      <c r="C163" s="16"/>
-    </row>
-    <row r="164" spans="2:3">
+    <row r="161" spans="3:3">
+      <c r="C161" s="16"/>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="16"/>
+    </row>
+    <row r="163" s="6" customFormat="1" spans="1:3">
+      <c r="A163" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+    </row>
+    <row r="164" ht="43.2" spans="2:3">
       <c r="B164" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165" t="s">
         <v>340</v>
       </c>
-      <c r="C165" s="16" t="s">
-        <v>341</v>
-      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="16"/>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
+        <v>341</v>
+      </c>
+      <c r="C166" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167" s="16" t="s">
         <v>344</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
+        <v>345</v>
+      </c>
+      <c r="C168" s="16" t="s">
         <v>346</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="C169" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" s="16" t="s">
         <v>350</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C171" s="16" t="s">
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="172" ht="28.8" spans="2:3">
-      <c r="B172" t="s">
+      <c r="C172" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C172" s="16" t="s">
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="16"/>
-    </row>
-    <row r="174" spans="2:3">
+      <c r="C173" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="174" ht="28.8" spans="2:3">
       <c r="B174" t="s">
-        <v>356</v>
-      </c>
-      <c r="C174" s="16"/>
-    </row>
-    <row r="175" spans="2:3">
-      <c r="B175" t="s">
-        <v>56</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
       <c r="C175" s="16"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
-        <v>357</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>358</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C176" s="16"/>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>359</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>360</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C178" s="16"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C180" s="16"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>365</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>366</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C182" s="16"/>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C183" s="16"/>
-    </row>
-    <row r="184" spans="3:3">
-      <c r="C184" s="16"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="15" t="s">
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" t="s">
         <v>368</v>
       </c>
+      <c r="C184" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
       <c r="B185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" s="16"/>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" t="s">
         <v>56</v>
       </c>
-      <c r="C185" s="16"/>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="15"/>
-      <c r="B186" t="s">
-        <v>369</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="15"/>
-      <c r="B187" t="s">
-        <v>371</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>372</v>
-      </c>
+      <c r="C187" s="16"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="15"/>
       <c r="B188" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188" s="16" t="s">
         <v>373</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="15"/>
       <c r="B189" t="s">
+        <v>374</v>
+      </c>
+      <c r="C189" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="C189" s="16" t="s">
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="15"/>
+      <c r="B190" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="190" spans="3:3">
-      <c r="C190" s="16"/>
+      <c r="C190" s="16" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C191" s="16"/>
+      <c r="A191" s="15"/>
+      <c r="B191" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="16"/>
     </row>
-    <row r="193" spans="3:3">
+    <row r="193" spans="1:3">
+      <c r="A193" s="10" t="s">
+        <v>380</v>
+      </c>
       <c r="C193" s="16"/>
     </row>
-    <row r="194" s="6" customFormat="1" spans="1:3">
-      <c r="A194" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-    </row>
-    <row r="195" ht="28.8" spans="1:3">
-      <c r="A195" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B195" t="s">
-        <v>285</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C196" t="s">
+    <row r="194" spans="3:3">
+      <c r="C194" s="16"/>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="16"/>
+    </row>
+    <row r="196" s="6" customFormat="1" spans="1:3">
+      <c r="A196" s="13" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+    </row>
+    <row r="197" ht="28.8" spans="1:3">
       <c r="A197" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B197" t="s">
+        <v>288</v>
+      </c>
+      <c r="C197" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="C197" t="s">
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="11" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="199" s="9" customFormat="1" spans="1:3">
-      <c r="A199" s="13" t="s">
+      <c r="C198" t="s">
         <v>384</v>
       </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-    </row>
-    <row r="200" spans="2:3">
-      <c r="B200" t="s">
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C200" s="16"/>
-    </row>
-    <row r="201" ht="43.2" spans="2:3">
-      <c r="B201" t="s">
+      <c r="C199" t="s">
         <v>386</v>
       </c>
-      <c r="C201" s="16" t="s">
+    </row>
+    <row r="201" s="9" customFormat="1" spans="1:3">
+      <c r="A201" s="13" t="s">
         <v>387</v>
       </c>
+      <c r="B201" s="13"/>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" t="s">
         <v>388</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="16"/>
+    </row>
+    <row r="203" ht="43.2" spans="2:3">
+      <c r="B203" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="203" spans="3:3">
-      <c r="C203" t="s">
+      <c r="C203" s="16" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="204" ht="43.2" spans="2:3">
+    <row r="204" spans="2:3">
       <c r="B204" t="s">
         <v>391</v>
       </c>
-      <c r="C204" s="16" t="s">
+      <c r="C204" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="2:3">
-      <c r="B205" t="s">
+    <row r="205" spans="3:3">
+      <c r="C205" t="s">
         <v>393</v>
       </c>
-      <c r="C205" t="s">
+    </row>
+    <row r="206" ht="43.2" spans="2:3">
+      <c r="B206" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="206" spans="2:3">
-      <c r="B206" t="s">
+      <c r="C206" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" t="s">
         <v>396</v>
       </c>
+      <c r="C207" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" t="s">
+        <v>398</v>
+      </c>
+      <c r="C208" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A55:A65"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A98:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A126:A139"/>
-    <mergeCell ref="A140:A151"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A100:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A128:A141"/>
+    <mergeCell ref="A142:A153"/>
+    <mergeCell ref="A187:A191"/>
     <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B149:B150"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://www.runoob.com/mysql/mysql-insert-query.html"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.runoob.com/sql/sql-tutorial.html" tooltip="https://www.runoob.com/sql/sql-tutorial.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4779,7 +4813,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4793,79 +4827,79 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4873,41 +4907,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4916,10 +4950,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4928,13 +4962,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4942,124 +4976,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F16" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" t="s">
         <v>445</v>
-      </c>
-      <c r="F17" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D21" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="462">
   <si>
     <t>Mysql5.7.19下载与安装</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip</t>
+  </si>
+  <si>
+    <t>MySQL下载步骤详解</t>
+  </si>
+  <si>
+    <t>http://c.biancheng.net/view/2391.html</t>
   </si>
   <si>
     <t>Oracle账号，登录dev.mysql.com网站</t>
@@ -2315,7 +2321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2390,9 +2396,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2745,10 +2748,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2773,108 +2776,108 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" s="21" customFormat="1" spans="2:3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" s="21" customFormat="1" spans="2:3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="21" customFormat="1"/>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="8" customFormat="1" spans="1:2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="21" customFormat="1"/>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="9" s="21" customFormat="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+    <row r="11" s="21" customFormat="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" ht="28.8" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" ht="28.8" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -2908,11 +2911,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2925,7 +2928,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
@@ -2933,7 +2936,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B26" t="s">
@@ -2956,156 +2959,165 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="26"/>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>50</v>
+      <c r="B35" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" ht="72" spans="1:2">
-      <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="16" t="s">
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" ht="43.2" spans="2:2">
+    <row r="41" ht="72" spans="1:2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
       <c r="B41" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="22"/>
+    </row>
+    <row r="42" ht="43.2" spans="2:2">
+      <c r="B42" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="22" t="s">
         <v>61</v>
       </c>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" ht="57.6" spans="1:2">
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="48" ht="57.6" spans="1:2">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="16"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="12"/>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="16"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://blog.csdn.net/weixin_43395911/article/details/99702121" tooltip="https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://blog.csdn.net/weixin_43395911/article/details/99702121" tooltip="https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
     <hyperlink ref="B2" r:id="rId2" display="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip" tooltip="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip"/>
-    <hyperlink ref="B44" r:id="rId3" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
-    <hyperlink ref="B46" r:id="rId4" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
-    <hyperlink ref="B3" r:id="rId5" display="2693281934@qq.com/@Aa123456"/>
-    <hyperlink ref="B34" r:id="rId6" display="http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装"/>
+    <hyperlink ref="B45" r:id="rId3" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
+    <hyperlink ref="B47" r:id="rId4" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
+    <hyperlink ref="B4" r:id="rId5" display="2693281934@qq.com/@Aa123456"/>
+    <hyperlink ref="B35" r:id="rId6" display="http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装"/>
+    <hyperlink ref="B3" r:id="rId7" display="http://c.biancheng.net/view/2391.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3131,112 +3143,112 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="1" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:3">
       <c r="A12" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" s="7" customFormat="1" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3244,98 +3256,98 @@
     <row r="20" spans="1:3">
       <c r="A20" s="15"/>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="15"/>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="15"/>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="15"/>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:3">
       <c r="B28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" s="8" customFormat="1" spans="1:3">
       <c r="A32" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -3343,801 +3355,801 @@
     <row r="33" spans="1:3">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" ht="28.8" spans="1:3">
       <c r="A34" s="15"/>
       <c r="B34" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="15"/>
       <c r="B35" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="15"/>
       <c r="B36" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="15"/>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="15"/>
       <c r="B38" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="15"/>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="15"/>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="15"/>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" ht="28.8" spans="1:3">
       <c r="A43" s="15"/>
       <c r="B43" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="15"/>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="15"/>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="15"/>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="100.8" spans="1:2">
       <c r="A55" s="15"/>
       <c r="B55" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="15"/>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="15"/>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="15"/>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="15"/>
       <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
         <v>179</v>
-      </c>
-      <c r="C61" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="15"/>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="15"/>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="15"/>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="15"/>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="15"/>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="15"/>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="15"/>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="15"/>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="15"/>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="15"/>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="15"/>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="15"/>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="15"/>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="15"/>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="15"/>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="15"/>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="15"/>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="15"/>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="15"/>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="15"/>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="15"/>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="15"/>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="15"/>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" ht="86.4" spans="1:3">
       <c r="A87" s="15"/>
       <c r="B87" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" ht="28.8" spans="1:2">
       <c r="A88" s="15"/>
       <c r="B88" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:3">
       <c r="A89" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:3">
       <c r="A90" s="15"/>
       <c r="B90" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:3">
       <c r="A91" s="15"/>
       <c r="B91" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:3">
       <c r="A92" s="15"/>
       <c r="B92" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
       <c r="A93" s="15"/>
       <c r="B93" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:3">
       <c r="A94" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:3">
       <c r="A95" s="15"/>
       <c r="B95" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" customFormat="1" ht="72" spans="1:3">
       <c r="A96" s="15"/>
       <c r="B96" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" customFormat="1" ht="43.2" spans="1:3">
       <c r="A97" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:3">
       <c r="A98" s="19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C98" s="16"/>
     </row>
     <row r="99" customFormat="1" spans="1:3">
       <c r="A99" s="15"/>
       <c r="B99" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:3">
       <c r="A100" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" customFormat="1" ht="28.8" spans="1:3">
       <c r="A101" s="15"/>
       <c r="B101" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" customFormat="1" ht="43.2" spans="1:3">
       <c r="A102" s="15"/>
       <c r="B102" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" customFormat="1" ht="57.6" spans="1:3">
       <c r="A103" s="15"/>
       <c r="B103" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" customFormat="1" ht="57.6" spans="1:3">
       <c r="A104" s="15"/>
       <c r="B104" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" customFormat="1" ht="28.8" spans="1:3">
       <c r="A105" s="15"/>
       <c r="B105" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" customFormat="1" ht="28.8" spans="1:3">
       <c r="A106" s="15"/>
       <c r="B106" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" customFormat="1" ht="28.8" spans="1:3">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" customFormat="1" ht="28.8" spans="1:3">
       <c r="A108" s="15"/>
       <c r="B108" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" customFormat="1" ht="28.8" spans="1:3">
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" customFormat="1" ht="28.8" spans="1:3">
       <c r="A110" s="15"/>
       <c r="B110" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" customFormat="1" ht="28.8" spans="1:3">
       <c r="A111" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" customFormat="1" ht="28.8" spans="1:3">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:3">
       <c r="A113" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="28.8" spans="1:3">
       <c r="A114" s="15"/>
       <c r="B114" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:3">
       <c r="A115" s="15"/>
       <c r="B115" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" customFormat="1" ht="28.8" spans="1:3">
       <c r="A116" s="15"/>
       <c r="B116" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:3">
       <c r="A117" s="15"/>
       <c r="B117" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" customFormat="1" ht="43.2" spans="1:3">
       <c r="A118" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" customFormat="1" ht="43.2" spans="1:3">
       <c r="A119" s="15"/>
       <c r="B119" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:3">
       <c r="A120" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" customFormat="1" spans="1:3">
       <c r="A121" s="15"/>
       <c r="B121" s="18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:3">
       <c r="A122" s="15"/>
       <c r="B122" s="18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" customFormat="1" ht="28.8" spans="1:3">
       <c r="A123" s="19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B123" s="16"/>
       <c r="C123" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:3">
@@ -4151,231 +4163,231 @@
     </row>
     <row r="126" s="6" customFormat="1" spans="1:3">
       <c r="A126" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
     </row>
     <row r="127" ht="172.8" spans="2:3">
       <c r="B127" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" ht="43.2" spans="1:3">
       <c r="A128" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" ht="57.6" spans="1:3">
       <c r="A129" s="15"/>
       <c r="B129" s="2"/>
       <c r="C129" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" ht="72" spans="1:3">
       <c r="A130" s="15"/>
       <c r="B130" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" ht="57.6" spans="1:3">
       <c r="A131" s="15"/>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" ht="43.2" spans="1:3">
       <c r="A132" s="15"/>
       <c r="B132" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" ht="43.2" spans="1:3">
       <c r="A133" s="15"/>
       <c r="B133" s="2"/>
       <c r="C133" s="16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" ht="57.6" spans="1:3">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" ht="86.4" spans="1:3">
       <c r="A135" s="15"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="15"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="15"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" ht="86.4" spans="1:3">
       <c r="A138" s="15"/>
       <c r="B138" s="16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:3">
       <c r="A139" s="15"/>
       <c r="B139" s="16" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="15"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="15"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="15"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="15"/>
       <c r="B144" s="16" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="15"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="15"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="15"/>
       <c r="B147" s="16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="15"/>
       <c r="B148" s="16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="15"/>
       <c r="B149" s="16" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="15"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="15"/>
       <c r="B151" s="16" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C151" s="16"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="15"/>
       <c r="B152" s="16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="15"/>
       <c r="B153" s="16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4388,33 +4400,33 @@
     </row>
     <row r="156" s="6" customFormat="1" spans="1:3">
       <c r="A156" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
     </row>
     <row r="157" ht="28.8" spans="2:3">
       <c r="B157" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" ht="28.8" spans="2:3">
       <c r="B158" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159" ht="28.8" spans="2:3">
       <c r="B159" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="3:3">
@@ -4428,17 +4440,17 @@
     </row>
     <row r="163" s="6" customFormat="1" spans="1:3">
       <c r="A163" s="13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
     </row>
     <row r="164" ht="43.2" spans="2:3">
       <c r="B164" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" spans="3:3">
@@ -4446,74 +4458,74 @@
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" ht="28.8" spans="2:3">
       <c r="B174" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="175" spans="3:3">
@@ -4521,71 +4533,71 @@
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C176" s="16"/>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C177" s="16"/>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C180" s="16"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C182" s="16"/>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C185" s="16"/>
     </row>
@@ -4594,47 +4606,47 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="15" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B187" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C187" s="16"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="15"/>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="15"/>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="15"/>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="15"/>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="192" spans="3:3">
@@ -4642,7 +4654,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C193" s="16"/>
     </row>
@@ -4654,94 +4666,94 @@
     </row>
     <row r="196" s="6" customFormat="1" spans="1:3">
       <c r="A196" s="13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
     </row>
     <row r="197" ht="28.8" spans="1:3">
       <c r="A197" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B197" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C198" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C199" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="201" s="9" customFormat="1" spans="1:3">
       <c r="A201" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C202" s="16"/>
     </row>
     <row r="203" ht="43.2" spans="2:3">
       <c r="B203" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C204" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="206" ht="43.2" spans="2:3">
       <c r="B206" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C207" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C208" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4825,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4827,79 +4839,79 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4907,41 +4919,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4950,10 +4962,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4962,13 +4974,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4976,124 +4988,124 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F13" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H13" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F17" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D20" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -74,42 +74,13 @@
     <t>系统变量</t>
   </si>
   <si>
-    <t>Path  》编辑 》新建      D:\mysql-5.7.19-winx64\bin</t>
+    <t>Path  》编辑 》新建      D:\mysql-8.0.30-winx64\bin</t>
   </si>
   <si>
     <t>新建文件my.ini</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D:\mysql-5.7.19-winx64目录下，新建文件my.ini,加内容要改安装路径------</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>复制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：这文件的当前目录有my.ini文件</t>
-    </r>
+    <t>D:\mysql-8.0.30-winx64目录下，新建文件my.ini,加内容要改安装路径------复制：这文件的当前目录有my.ini文件</t>
   </si>
   <si>
     <t>管理员身份打开cmd</t>
@@ -121,10 +92,10 @@
     <t>cdm切换bin目录下</t>
   </si>
   <si>
-    <t>方法一：cd /D D:\mysql-5.7.19-winx64\bin</t>
-  </si>
-  <si>
-    <t>方法二：1.切换D盘：d:  2.切换路径：cd D:\mysql-5.7.19-winx64\bin</t>
+    <t>方法一：cd /D D:\mysql-8.0.30-winx64\bin</t>
+  </si>
+  <si>
+    <t>方法二：1.切换D盘：d:  2.切换路径：cd D:\mysql-8.0.30-winx64\bin</t>
   </si>
   <si>
     <t>1.注册服务:任务管理器-服务</t>
@@ -146,7 +117,7 @@
     <t>2.初始化</t>
   </si>
   <si>
-    <t>mysqld --initialize-insecure --user=mysql         D:\mysql-5.7.19-winx64出现data文件</t>
+    <t>mysqld --initialize-insecure --user=mysql         D:\mysql-8.0.30-winx64出现data文件</t>
   </si>
   <si>
     <t>3.启动mysql服务</t>
@@ -179,7 +150,7 @@
     <t>mysql -u root -p</t>
   </si>
   <si>
-    <t>2.使用mysql</t>
+    <t>2.使用mysql数据库</t>
   </si>
   <si>
     <t>use mysql;</t>
@@ -188,7 +159,9 @@
     <t>3.设置myspl用户名与密码</t>
   </si>
   <si>
-    <t>update user set authentication_string=password('root123456') where user='root' and Host='localhost';</t>
+    <t>update user set authentication_string=password('root123456') where user='root' and Host='localhost';
+报错ERROR 1064，是mysql版本问题，用下面的
+ALTER USER 'root'@'localhost' IDENTIFIED BY 'root123456';</t>
   </si>
   <si>
     <t>4.刷新权限</t>
@@ -200,13 +173,13 @@
     <t>5.退出管理终端</t>
   </si>
   <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>删除已安装得mysql</t>
-  </si>
-  <si>
-    <t>sc delete mysql</t>
+    <t>quit;</t>
+  </si>
+  <si>
+    <t>删除已安装得mysql，换mysql版本会用到</t>
+  </si>
+  <si>
+    <t>sc delete mysql;</t>
   </si>
   <si>
     <t>命令行连接mysql---略略</t>
@@ -840,27 +813,32 @@
     <t>多表查询</t>
   </si>
   <si>
-    <t>表1的一行与表2的每一行组合，组合行数 = 表1行数 * 表2行数</t>
-  </si>
-  <si>
-    <t>select * from 表1,表2</t>
-  </si>
-  <si>
-    <t>有效组合</t>
-  </si>
-  <si>
-    <t>select * from 表1,表2
-    where 表1.key = 表2.key</t>
-  </si>
-  <si>
+    <r>
+      <t>表1的一行与表2的每一行组合，</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>组合行数 = 表1行数 * 表2行数</t>
+    </r>
+  </si>
+  <si>
+    <t>select * from 表1,表2</t>
+  </si>
+  <si>
+    <t>有效组合</t>
+  </si>
+  <si>
+    <t>select * from 表1,表2
+    where 表1.key = 表2.key</t>
+  </si>
+  <si>
+    <r>
       <t>自连接：同表关联父级、一张表当两张用、</t>
     </r>
     <r>
@@ -926,7 +904,7 @@
     where key = key and 临时表别名.key = 同表名.key</t>
   </si>
   <si>
-    <t>all  比所有高  相当于  max()比最高的高</t>
+    <t>all  比所有都高  相当于  max()比最高的高</t>
   </si>
   <si>
     <t>select key,key from 表名
@@ -1642,7 +1620,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,6 +1815,13 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2750,8 +2735,8 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2935,11 +2920,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" ht="43.2" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3130,8 +3115,8 @@
   <sheetPr/>
   <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3934,7 +3919,7 @@
       <c r="A100" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="20" t="s">
         <v>240</v>
       </c>
       <c r="C100" s="16" t="s">

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -157,9 +157,9 @@
     <t>3.设置myspl用户名与密码</t>
   </si>
   <si>
-    <t>update user set authentication_string=password('root123456') where user='root' and Host='localhost';
+    <t>update user set authentication_string=password('root') where user='root' and Host='localhost';
 报错ERROR 1064，是mysql版本问题，用下面的
-ALTER USER 'root'@'localhost' IDENTIFIED BY 'root123456';</t>
+ALTER USER 'root'@'localhost' IDENTIFIED BY 'root';</t>
   </si>
   <si>
     <t>4.刷新权限</t>
@@ -186,7 +186,7 @@
     <t>mysql -h 主机名 -P 端口 -u 用户名 -p密码(没空格，密码若不写，下行需要)启动后,连接mysql服务(数据库)指令</t>
   </si>
   <si>
-    <t>mysql -h localhost -P 3306 -u root -proot123456            localhost可替换127.0.0.1</t>
+    <t>mysql -h localhost -P 3306 -u root -proot            localhost可替换127.0.0.1</t>
   </si>
   <si>
     <t>Navicat安装（14天免费）------ 略，要钱，用下面SQLyog</t>
@@ -1496,7 +1496,7 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>Mysql5.7.19下载与安装</t>
   </si>
@@ -386,12 +386,16 @@
     <t>1-64</t>
   </si>
   <si>
-    <t>文本类型（字符串类型）</t>
+    <t>文本类型（字符字符串）
+text 在定义时，不需要定义长度，也不会计算总长度，不可给default值</t>
   </si>
   <si>
     <t>char</t>
   </si>
   <si>
+    <t>定长字符串，速度快，但浪费空间</t>
+  </si>
+  <si>
     <t>0-255</t>
   </si>
   <si>
@@ -401,30 +405,45 @@
     <t>varchar</t>
   </si>
   <si>
+    <t>变长字符串，速度慢，但节省空间</t>
+  </si>
+  <si>
     <t>0-65535</t>
   </si>
   <si>
     <t>varchar(32) not null default ''</t>
   </si>
   <si>
+    <t>tinytext</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
     <t>0-2^16 - 1</t>
   </si>
   <si>
+    <t>mediumtext</t>
+  </si>
+  <si>
     <t>longtext</t>
   </si>
   <si>
     <t>0-2^32 - 1</t>
   </si>
   <si>
-    <t>二进制数据类型</t>
+    <t>二进制字符串（字节字符串）</t>
+  </si>
+  <si>
+    <t>tinyblob</t>
   </si>
   <si>
     <t>blob</t>
   </si>
   <si>
+    <t>mediumblob</t>
+  </si>
+  <si>
     <t>longblob</t>
   </si>
   <si>
@@ -459,6 +478,18 @@
   </si>
   <si>
     <t>年</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>enum(val1, val2...)</t>
+  </si>
+  <si>
+    <t>集合</t>
+  </si>
+  <si>
+    <t>set(val1, val2...)</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +1156,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1139,9 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,7 +1530,7 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1508,16 +1542,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1525,7 +1559,7 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1533,7 +1567,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1541,14 +1575,14 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="2:3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="2:3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
@@ -1566,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1"/>
+    <row r="9" s="8" customFormat="1"/>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>13</v>
@@ -1575,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1"/>
+    <row r="11" s="8" customFormat="1"/>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>15</v>
@@ -1591,14 +1625,14 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -1607,14 +1641,14 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" ht="28.8" spans="1:3">
       <c r="A16" s="2"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -1623,7 +1657,7 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -1685,7 +1719,7 @@
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1731,16 +1765,16 @@
       <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1776,26 +1810,26 @@
       <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" ht="43.2" spans="2:2">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1811,7 +1845,7 @@
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1819,7 +1853,7 @@
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1837,15 +1871,15 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="11"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3"/>
-      <c r="B54" s="9"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1874,10 +1908,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2054,63 +2088,62 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
+      <c r="C14" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15"/>
       <c r="F15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2120,70 +2153,126 @@
         <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>123</v>
       </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>128</v>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A12:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B22"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="A12:B17"/>
+    <mergeCell ref="A18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="mysql安装" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
-  <si>
-    <t>Mysql5.7.19下载与安装</t>
-  </si>
-  <si>
-    <t>下载地址</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
+  <si>
+    <t>MySQL 社区服务器下载</t>
+  </si>
+  <si>
+    <t>直接下载地址，不过版本是5.7.19</t>
   </si>
   <si>
     <t>https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip</t>
@@ -35,7 +35,11 @@
     <t>Oracle账号，登录dev.mysql.com网站</t>
   </si>
   <si>
-    <t>2693281934@qq.com/@Aa123456</t>
+    <t>2693281934@qq.com
+@Aa123456</t>
+  </si>
+  <si>
+    <t>MySQL 社区服务器安装</t>
   </si>
   <si>
     <t>MySQL 5.7.19详细下载安装配置教程</t>
@@ -44,6 +48,139 @@
     <t>https://blog.csdn.net/weixin_43395911/article/details/99702121</t>
   </si>
   <si>
+    <t>环境变量配置</t>
+  </si>
+  <si>
+    <t>位置：桌面》我的电脑》右击》属性》高级系统设置》高级》环境变量》系统变量》Path》编辑》新建》D:\java\mysql-8.0.32-winx64\bin
+系统变量：电脑所用用户都能用
+用户变量：电脑只有该用户可以用</t>
+  </si>
+  <si>
+    <t>MySQL怎么配置my.ini文件</t>
+  </si>
+  <si>
+    <t>https://jingyan.baidu.com/article/db55b609f407740aa30a2f88.html</t>
+  </si>
+  <si>
+    <t>新建文件my.ini</t>
+  </si>
+  <si>
+    <t>D:\java\mysql-8.0.32-winx64目录下，新建文件my.ini,加内容,要改安装路径</t>
+  </si>
+  <si>
+    <t>管理员身份打开cmd</t>
+  </si>
+  <si>
+    <t>开始--windows系统--命令提示符--右击--以管理员身份运行
+或电脑底部搜索输入cmd回车
+或bin目录，路径上输入cmd回车</t>
+  </si>
+  <si>
+    <t>cdm切换bin目录下</t>
+  </si>
+  <si>
+    <t>方法一：cd /D D:\java\mysql-8.0.32-winx64\bin</t>
+  </si>
+  <si>
+    <t>方法二：1.切换D盘：d:  2.切换路径：cd D:\java\mysql-8.0.32-winx64\bin</t>
+  </si>
+  <si>
+    <t>1.注册服务:任务管理器-服务</t>
+  </si>
+  <si>
+    <t>mysqld -install</t>
+  </si>
+  <si>
+    <t>MySQL安装时报错找不到MSVCR120.dll
+https://blog.csdn.net/NITIQ/article/details/125009840</t>
+  </si>
+  <si>
+    <t>查看服务，打开服务管理器---不想看就算了</t>
+  </si>
+  <si>
+    <t>win + r   》   输入services.msc</t>
+  </si>
+  <si>
+    <t>2.初始化</t>
+  </si>
+  <si>
+    <t>mysqld --initialize-insecure --user=mysql         D:\mysql-8.0.30-winx64出现data文件</t>
+  </si>
+  <si>
+    <t>3.启动mysql服务</t>
+  </si>
+  <si>
+    <t>net start mysql</t>
+  </si>
+  <si>
+    <t>查看启动的报错信息---不想看就算了</t>
+  </si>
+  <si>
+    <t>mysqld --console</t>
+  </si>
+  <si>
+    <t>查看占用端口---不想看就算了</t>
+  </si>
+  <si>
+    <t>netstat -ano</t>
+  </si>
+  <si>
+    <t>停止mysql服务</t>
+  </si>
+  <si>
+    <t>net stop mysql</t>
+  </si>
+  <si>
+    <t>1.进入管理终端，先启动mysql服务</t>
+  </si>
+  <si>
+    <t>mysql -u root -p</t>
+  </si>
+  <si>
+    <t>2.使用mysql数据库</t>
+  </si>
+  <si>
+    <t>use mysql;</t>
+  </si>
+  <si>
+    <t>3.设置myspl用户名与密码</t>
+  </si>
+  <si>
+    <t>update user set authentication_string=password('root') where user='root' and Host='localhost';
+报错ERROR 1064，是mysql版本问题，用下面的
+ALTER USER 'root'@'localhost' IDENTIFIED BY 'root';</t>
+  </si>
+  <si>
+    <t>4.刷新权限</t>
+  </si>
+  <si>
+    <t>flush privileges;</t>
+  </si>
+  <si>
+    <t>5.退出管理终端</t>
+  </si>
+  <si>
+    <t>quit;</t>
+  </si>
+  <si>
+    <t>删除已安装得mysql，换mysql版本会用到</t>
+  </si>
+  <si>
+    <t>sc delete mysql;</t>
+  </si>
+  <si>
+    <t>命令行连接mysql---略略</t>
+  </si>
+  <si>
+    <t>mysql -h 主机名 -P 端口 -u 用户名 -p密码(没空格，密码若不写，下行需要)启动后,连接mysql服务(数据库)指令</t>
+  </si>
+  <si>
+    <t>mysql -h localhost -P 3306 -u root -proot            localhost可替换127.0.0.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navicat安装（14天免费）------ </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -52,144 +189,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>环境变量</t>
+      <t>略，要钱，用下面SQLyog</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (分为用户变量和系统变量)</t>
-    </r>
-  </si>
-  <si>
-    <t>桌面》我的电脑》右击》属性》高级系统设置》高级》环境变量</t>
-  </si>
-  <si>
-    <t>系统变量</t>
-  </si>
-  <si>
-    <t>Path  》编辑 》新建      D:\mysql-8.0.30-winx64\bin</t>
-  </si>
-  <si>
-    <t>新建文件my.ini</t>
-  </si>
-  <si>
-    <t>D:\mysql-8.0.30-winx64目录下，新建文件my.ini,加内容要改安装路径------复制：这文件的当前目录有my.ini文件</t>
-  </si>
-  <si>
-    <t>管理员身份打开cmd</t>
-  </si>
-  <si>
-    <t>开始--windows系统--命令提示符--右击-。。。</t>
-  </si>
-  <si>
-    <t>cdm切换bin目录下</t>
-  </si>
-  <si>
-    <t>方法一：cd /D D:\mysql-8.0.30-winx64\bin</t>
-  </si>
-  <si>
-    <t>方法二：1.切换D盘：d:  2.切换路径：cd D:\mysql-8.0.30-winx64\bin</t>
-  </si>
-  <si>
-    <t>1.注册服务:任务管理器-服务</t>
-  </si>
-  <si>
-    <t>mysqld -install</t>
-  </si>
-  <si>
-    <t>报错：应用程序无法正常启动（0xc000007b）--- https://blog.csdn.net/zztingfeng/article/details/80155624
-报错找不到文件，noFile里备有。复制到位置：C:\Windows\SysWOW64</t>
-  </si>
-  <si>
-    <t>查看服务，打开服务管理器---不想看就算了</t>
-  </si>
-  <si>
-    <t>win + r   》   输入services.msc</t>
-  </si>
-  <si>
-    <t>2.初始化</t>
-  </si>
-  <si>
-    <t>mysqld --initialize-insecure --user=mysql         D:\mysql-8.0.30-winx64出现data文件</t>
-  </si>
-  <si>
-    <t>3.启动mysql服务</t>
-  </si>
-  <si>
-    <t>net start mysql</t>
-  </si>
-  <si>
-    <t>查看启动的报错信息---不想看就算了</t>
-  </si>
-  <si>
-    <t>mysqld --console</t>
-  </si>
-  <si>
-    <t>查看占用端口---不想看就算了</t>
-  </si>
-  <si>
-    <t>netstat -ano</t>
-  </si>
-  <si>
-    <t>停止mysql服务</t>
-  </si>
-  <si>
-    <t>net stop mysql</t>
-  </si>
-  <si>
-    <t>1.进入管理终端，先启动mysql服务</t>
-  </si>
-  <si>
-    <t>mysql -u root -p</t>
-  </si>
-  <si>
-    <t>2.使用mysql数据库</t>
-  </si>
-  <si>
-    <t>use mysql;</t>
-  </si>
-  <si>
-    <t>3.设置myspl用户名与密码</t>
-  </si>
-  <si>
-    <t>update user set authentication_string=password('root') where user='root' and Host='localhost';
-报错ERROR 1064，是mysql版本问题，用下面的
-ALTER USER 'root'@'localhost' IDENTIFIED BY 'root';</t>
-  </si>
-  <si>
-    <t>4.刷新权限</t>
-  </si>
-  <si>
-    <t>flush privileges;</t>
-  </si>
-  <si>
-    <t>5.退出管理终端</t>
-  </si>
-  <si>
-    <t>quit;</t>
-  </si>
-  <si>
-    <t>删除已安装得mysql，换mysql版本会用到</t>
-  </si>
-  <si>
-    <t>sc delete mysql;</t>
-  </si>
-  <si>
-    <t>命令行连接mysql---略略</t>
-  </si>
-  <si>
-    <t>mysql -h 主机名 -P 端口 -u 用户名 -p密码(没空格，密码若不写，下行需要)启动后,连接mysql服务(数据库)指令</t>
-  </si>
-  <si>
-    <t>mysql -h localhost -P 3306 -u root -proot            localhost可替换127.0.0.1</t>
-  </si>
-  <si>
-    <t>Navicat安装（14天免费）------ 略，要钱，用下面SQLyog</t>
+  </si>
+  <si>
+    <t>下载地址</t>
   </si>
   <si>
     <t>http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装</t>
@@ -502,7 +506,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +535,12 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,7 +679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,16 +1023,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,13 +1044,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,98 +1059,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,10 +1190,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,17 +1556,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
-    <col min="3" max="3" width="60.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
+    <col min="3" max="3" width="60.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1563,341 +1591,349 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="27" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="2:3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="2:3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:2">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" customFormat="1" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" s="8" customFormat="1"/>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="12" s="8" customFormat="1"/>
+    <row r="13" ht="40.5" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" ht="28.8" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="27" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
         <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" ht="43.2" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27" ht="40.5" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B27" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="13"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>52</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
       <c r="B40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" ht="72" spans="1:2">
-      <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="6" t="s">
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" ht="43.2" spans="2:2">
+    <row r="42" ht="67.5" spans="1:2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
       <c r="B42" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="9"/>
+    </row>
+    <row r="43" ht="40.5" spans="2:2">
+      <c r="B43" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" ht="57.6" spans="1:2">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="49" ht="54" spans="1:2">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="11"/>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="6"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://blog.csdn.net/weixin_43395911/article/details/99702121" tooltip="https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://blog.csdn.net/weixin_43395911/article/details/99702121" tooltip="https://blog.csdn.net/weixin_43395911/article/details/99702121"/>
     <hyperlink ref="B2" r:id="rId2" display="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip" tooltip="https://dev.mysql.com/get/Downloads/MySQL-5.7/mysql-5.7.19-winx64.zip"/>
-    <hyperlink ref="B45" r:id="rId3" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
-    <hyperlink ref="B47" r:id="rId4" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
-    <hyperlink ref="B4" r:id="rId5" display="2693281934@qq.com/@Aa123456"/>
-    <hyperlink ref="B35" r:id="rId6" display="http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装"/>
-    <hyperlink ref="B3" r:id="rId7" display="http://c.biancheng.net/view/2391.html"/>
+    <hyperlink ref="B46" r:id="rId3" display="https://sqlyog.en.softonic.com/" tooltip="https://sqlyog.en.softonic.com/"/>
+    <hyperlink ref="B48" r:id="rId4" display="root@localhost---右键---创建数据库        数据库名：db02   字符集： 选utf8    排序规则：选utf8_unicode_ci"/>
+    <hyperlink ref="B4" r:id="rId5" display="2693281934@qq.com&#10;@Aa123456" tooltip="mailto:2693281934@qq.com@Aa123456"/>
+    <hyperlink ref="B36" r:id="rId6" display="http://www.navicat.com.cn/products/         下载的exe---右击---使用管理员安装"/>
+    <hyperlink ref="B3" r:id="rId7" display="http://c.biancheng.net/view/2391.html" tooltip="http://c.biancheng.net/view/2391.html"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://jingyan.baidu.com/article/db55b609f407740aa30a2f88.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1910,23 +1946,23 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="20.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="35.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="20.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="50.7777777777778" customWidth="1"/>
+    <col min="1" max="3" width="20.775" customWidth="1"/>
+    <col min="4" max="4" width="35.775" customWidth="1"/>
+    <col min="5" max="5" width="15.775" customWidth="1"/>
+    <col min="6" max="6" width="20.775" customWidth="1"/>
+    <col min="7" max="7" width="10.775" customWidth="1"/>
+    <col min="8" max="8" width="50.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1940,79 +1976,79 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2020,41 +2056,41 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2063,10 +2099,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2075,13 +2111,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -2089,177 +2125,176 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15"/>
+        <v>118</v>
+      </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/java/mysql.xlsx
+++ b/java/mysql.xlsx
@@ -179,6 +179,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Navicat安装（14天免费）------ </t>
     </r>
     <r>
@@ -1559,7 +1566,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
